--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11475.04493978755</v>
+        <v>12208.94588816207</v>
       </c>
       <c r="AB2" t="n">
-        <v>15700.66272987211</v>
+        <v>16704.81838486295</v>
       </c>
       <c r="AC2" t="n">
-        <v>14202.21351495107</v>
+        <v>15110.53396357085</v>
       </c>
       <c r="AD2" t="n">
-        <v>11475044.93978755</v>
+        <v>12208945.88816207</v>
       </c>
       <c r="AE2" t="n">
-        <v>15700662.72987211</v>
+        <v>16704818.38486295</v>
       </c>
       <c r="AF2" t="n">
         <v>1.080512092045931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>146</v>
+        <v>145.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>14202213.51495107</v>
+        <v>15110533.96357085</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5503.958022846919</v>
+        <v>5963.950191715729</v>
       </c>
       <c r="AB3" t="n">
-        <v>7530.758184350353</v>
+        <v>8160.139763218949</v>
       </c>
       <c r="AC3" t="n">
-        <v>6812.033192721166</v>
+        <v>7381.347477045113</v>
       </c>
       <c r="AD3" t="n">
-        <v>5503958.022846919</v>
+        <v>5963950.191715729</v>
       </c>
       <c r="AE3" t="n">
-        <v>7530758.184350353</v>
+        <v>8160139.76321895</v>
       </c>
       <c r="AF3" t="n">
         <v>1.713342132568146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>92</v>
+        <v>91.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6812033.192721166</v>
+        <v>7381347.477045113</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4487.37339572675</v>
+        <v>4888.567117165768</v>
       </c>
       <c r="AB4" t="n">
-        <v>6139.822248975966</v>
+        <v>6688.753198066687</v>
       </c>
       <c r="AC4" t="n">
-        <v>5553.846230828115</v>
+        <v>6050.387980567023</v>
       </c>
       <c r="AD4" t="n">
-        <v>4487373.395726751</v>
+        <v>4888567.117165768</v>
       </c>
       <c r="AE4" t="n">
-        <v>6139822.248975965</v>
+        <v>6688753.198066687</v>
       </c>
       <c r="AF4" t="n">
         <v>1.956348868128677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.22135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5553846.230828115</v>
+        <v>6050387.980567023</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4050.469740309872</v>
+        <v>4422.332063356624</v>
       </c>
       <c r="AB5" t="n">
-        <v>5542.031392805629</v>
+        <v>6050.829828606082</v>
       </c>
       <c r="AC5" t="n">
-        <v>5013.107694965963</v>
+        <v>5473.34712215669</v>
       </c>
       <c r="AD5" t="n">
-        <v>4050469.740309872</v>
+        <v>4422332.063356624</v>
       </c>
       <c r="AE5" t="n">
-        <v>5542031.392805629</v>
+        <v>6050829.828606082</v>
       </c>
       <c r="AF5" t="n">
         <v>2.087495360335947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>5013107.694965962</v>
+        <v>5473347.12215669</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3796.67927693632</v>
+        <v>4158.718913293943</v>
       </c>
       <c r="AB6" t="n">
-        <v>5194.784084372876</v>
+        <v>5690.142686898909</v>
       </c>
       <c r="AC6" t="n">
-        <v>4699.001182285386</v>
+        <v>5147.083455026482</v>
       </c>
       <c r="AD6" t="n">
-        <v>3796679.27693632</v>
+        <v>4158718.913293943</v>
       </c>
       <c r="AE6" t="n">
-        <v>5194784.084372876</v>
+        <v>5690142.68689891</v>
       </c>
       <c r="AF6" t="n">
         <v>2.170185152297516e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4699001.182285386</v>
+        <v>5147083.455026481</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3633.742902835032</v>
+        <v>3986.095503148792</v>
       </c>
       <c r="AB7" t="n">
-        <v>4971.847349081977</v>
+        <v>5453.951721530927</v>
       </c>
       <c r="AC7" t="n">
-        <v>4497.341216116986</v>
+        <v>4933.434223897128</v>
       </c>
       <c r="AD7" t="n">
-        <v>3633742.902835032</v>
+        <v>3986095.503148792</v>
       </c>
       <c r="AE7" t="n">
-        <v>4971847.349081977</v>
+        <v>5453951.721530927</v>
       </c>
       <c r="AF7" t="n">
         <v>2.22442772719942e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.55989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4497341.216116986</v>
+        <v>4933434.223897127</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3508.899129045485</v>
+        <v>3851.395888281192</v>
       </c>
       <c r="AB8" t="n">
-        <v>4801.030590064523</v>
+        <v>5269.649765941461</v>
       </c>
       <c r="AC8" t="n">
-        <v>4342.826968837338</v>
+        <v>4766.721788279706</v>
       </c>
       <c r="AD8" t="n">
-        <v>3508899.129045485</v>
+        <v>3851395.888281192</v>
       </c>
       <c r="AE8" t="n">
-        <v>4801030.590064523</v>
+        <v>5269649.765941461</v>
       </c>
       <c r="AF8" t="n">
         <v>2.266375318456894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.25130208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4342826.968837338</v>
+        <v>4766721.788279706</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3409.962897332186</v>
+        <v>3752.425491149113</v>
       </c>
       <c r="AB9" t="n">
-        <v>4665.661673075886</v>
+        <v>5134.234102319576</v>
       </c>
       <c r="AC9" t="n">
-        <v>4220.377471294633</v>
+        <v>4644.230005536822</v>
       </c>
       <c r="AD9" t="n">
-        <v>3409962.897332186</v>
+        <v>3752425.491149113</v>
       </c>
       <c r="AE9" t="n">
-        <v>4665661.673075886</v>
+        <v>5134234.102319576</v>
       </c>
       <c r="AF9" t="n">
         <v>2.297956550955335e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>69</v>
+        <v>68.30078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>4220377.471294633</v>
+        <v>4644230.005536823</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3327.060124377613</v>
+        <v>3669.590038002244</v>
       </c>
       <c r="AB10" t="n">
-        <v>4552.230441707218</v>
+        <v>5020.894980881749</v>
       </c>
       <c r="AC10" t="n">
-        <v>4117.771957446062</v>
+        <v>4541.707810776569</v>
       </c>
       <c r="AD10" t="n">
-        <v>3327060.124377613</v>
+        <v>3669590.038002244</v>
       </c>
       <c r="AE10" t="n">
-        <v>4552230.441707218</v>
+        <v>5020894.980881749</v>
       </c>
       <c r="AF10" t="n">
         <v>2.321582205801498e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.61067708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4117771.957446062</v>
+        <v>4541707.810776569</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3256.085559376085</v>
+        <v>3588.793797341444</v>
       </c>
       <c r="AB11" t="n">
-        <v>4455.119910695302</v>
+        <v>4910.345999931066</v>
       </c>
       <c r="AC11" t="n">
-        <v>4029.92951921844</v>
+        <v>4441.709469411355</v>
       </c>
       <c r="AD11" t="n">
-        <v>3256085.559376085</v>
+        <v>3588793.797341444</v>
       </c>
       <c r="AE11" t="n">
-        <v>4455119.910695301</v>
+        <v>4910345.999931066</v>
       </c>
       <c r="AF11" t="n">
         <v>2.341832767098209e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>68</v>
+        <v>67.01822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4029929.51921844</v>
+        <v>4441709.469411355</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3182.104831177825</v>
+        <v>3514.778903724403</v>
       </c>
       <c r="AB12" t="n">
-        <v>4353.896214575055</v>
+        <v>4809.075557177572</v>
       </c>
       <c r="AC12" t="n">
-        <v>3938.366470587564</v>
+        <v>4350.104135580298</v>
       </c>
       <c r="AD12" t="n">
-        <v>3182104.831177825</v>
+        <v>3514778.903724403</v>
       </c>
       <c r="AE12" t="n">
-        <v>4353896.214575055</v>
+        <v>4809075.557177572</v>
       </c>
       <c r="AF12" t="n">
         <v>2.360154703509519e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.49739583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3938366.470587564</v>
+        <v>4350104.135580298</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3128.378053961261</v>
+        <v>3461.052126507839</v>
       </c>
       <c r="AB13" t="n">
-        <v>4280.384867729223</v>
+        <v>4735.564210331739</v>
       </c>
       <c r="AC13" t="n">
-        <v>3871.870943510877</v>
+        <v>4283.608608503611</v>
       </c>
       <c r="AD13" t="n">
-        <v>3128378.053961261</v>
+        <v>3461052.126507839</v>
       </c>
       <c r="AE13" t="n">
-        <v>4280384.867729222</v>
+        <v>4735564.210331739</v>
       </c>
       <c r="AF13" t="n">
         <v>2.37148537471125e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>67</v>
+        <v>66.18489583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3871870.943510877</v>
+        <v>4283608.608503612</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3066.103364325255</v>
+        <v>3398.844756679538</v>
       </c>
       <c r="AB14" t="n">
-        <v>4195.177890003827</v>
+        <v>4650.449342537185</v>
       </c>
       <c r="AC14" t="n">
-        <v>3794.796000150852</v>
+        <v>4206.616984231906</v>
       </c>
       <c r="AD14" t="n">
-        <v>3066103.364325255</v>
+        <v>3398844.756679538</v>
       </c>
       <c r="AE14" t="n">
-        <v>4195177.890003827</v>
+        <v>4650449.342537185</v>
       </c>
       <c r="AF14" t="n">
         <v>2.384744670798382e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.81380208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3794796.000150852</v>
+        <v>4206616.984231906</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3023.733936943561</v>
+        <v>3356.475329297843</v>
       </c>
       <c r="AB15" t="n">
-        <v>4137.206170252975</v>
+        <v>4592.477622786334</v>
       </c>
       <c r="AC15" t="n">
-        <v>3742.357019969204</v>
+        <v>4154.178004050258</v>
       </c>
       <c r="AD15" t="n">
-        <v>3023733.936943561</v>
+        <v>3356475.329297843</v>
       </c>
       <c r="AE15" t="n">
-        <v>4137206.170252976</v>
+        <v>4592477.622786334</v>
       </c>
       <c r="AF15" t="n">
         <v>2.392700248450662e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.59244791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3742357.019969204</v>
+        <v>4154178.004050258</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3008.719248294609</v>
+        <v>3341.460640648892</v>
       </c>
       <c r="AB16" t="n">
-        <v>4116.662410842165</v>
+        <v>4571.933863375523</v>
       </c>
       <c r="AC16" t="n">
-        <v>3723.773928123214</v>
+        <v>4135.594912204268</v>
       </c>
       <c r="AD16" t="n">
-        <v>3008719.248294609</v>
+        <v>3341460.640648892</v>
       </c>
       <c r="AE16" t="n">
-        <v>4116662.410842165</v>
+        <v>4571933.863375523</v>
       </c>
       <c r="AF16" t="n">
         <v>2.395352107668088e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>66</v>
+        <v>65.52083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3723773.928123214</v>
+        <v>4135594.912204269</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3010.679280408518</v>
+        <v>3343.319187536315</v>
       </c>
       <c r="AB17" t="n">
-        <v>4119.344213250929</v>
+        <v>4574.476809220197</v>
       </c>
       <c r="AC17" t="n">
-        <v>3726.199783074019</v>
+        <v>4137.895162866574</v>
       </c>
       <c r="AD17" t="n">
-        <v>3010679.280408517</v>
+        <v>3343319.187536315</v>
       </c>
       <c r="AE17" t="n">
-        <v>4119344.213250929</v>
+        <v>4574476.809220197</v>
       </c>
       <c r="AF17" t="n">
         <v>2.397521810664164e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>66</v>
+        <v>65.46875</v>
       </c>
       <c r="AH17" t="n">
-        <v>3726199.783074019</v>
+        <v>4137895.162866574</v>
       </c>
     </row>
     <row r="18">
@@ -6323,28 +6323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3021.158265482148</v>
+        <v>3353.798172609946</v>
       </c>
       <c r="AB18" t="n">
-        <v>4133.682022928865</v>
+        <v>4588.814618898133</v>
       </c>
       <c r="AC18" t="n">
-        <v>3739.169212319535</v>
+        <v>4150.86459211209</v>
       </c>
       <c r="AD18" t="n">
-        <v>3021158.265482148</v>
+        <v>3353798.172609946</v>
       </c>
       <c r="AE18" t="n">
-        <v>4133682.022928865</v>
+        <v>4588814.618898133</v>
       </c>
       <c r="AF18" t="n">
         <v>2.397521810664164e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>66</v>
+        <v>65.46875</v>
       </c>
       <c r="AH18" t="n">
-        <v>3739169.212319535</v>
+        <v>4150864.59211209</v>
       </c>
     </row>
   </sheetData>
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8060.830936233076</v>
+        <v>8670.50155120706</v>
       </c>
       <c r="AB2" t="n">
-        <v>11029.18450571732</v>
+        <v>11863.36273789403</v>
       </c>
       <c r="AC2" t="n">
-        <v>9976.574616048916</v>
+        <v>10731.14004852315</v>
       </c>
       <c r="AD2" t="n">
-        <v>8060830.936233075</v>
+        <v>8670501.55120706</v>
       </c>
       <c r="AE2" t="n">
-        <v>11029184.50571732</v>
+        <v>11863362.73789402</v>
       </c>
       <c r="AF2" t="n">
         <v>1.403066219894489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>123</v>
+        <v>122.3958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9976574.616048915</v>
+        <v>10731140.04852315</v>
       </c>
     </row>
     <row r="3">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4482.27452820758</v>
+        <v>4908.116194555995</v>
       </c>
       <c r="AB3" t="n">
-        <v>6132.845753490074</v>
+        <v>6715.501108196422</v>
       </c>
       <c r="AC3" t="n">
-        <v>5547.535562279826</v>
+        <v>6074.583107694905</v>
       </c>
       <c r="AD3" t="n">
-        <v>4482274.528207581</v>
+        <v>4908116.194555995</v>
       </c>
       <c r="AE3" t="n">
-        <v>6132845.753490075</v>
+        <v>6715501.108196422</v>
       </c>
       <c r="AF3" t="n">
         <v>2.024277151996674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.83723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5547535.562279826</v>
+        <v>6074583.107694905</v>
       </c>
     </row>
     <row r="4">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3775.325508439851</v>
+        <v>4152.731274648801</v>
       </c>
       <c r="AB4" t="n">
-        <v>5165.566916254226</v>
+        <v>5681.950135548653</v>
       </c>
       <c r="AC4" t="n">
-        <v>4672.572459685429</v>
+        <v>5139.672789278776</v>
       </c>
       <c r="AD4" t="n">
-        <v>3775325.508439851</v>
+        <v>4152731.274648801</v>
       </c>
       <c r="AE4" t="n">
-        <v>5165566.916254226</v>
+        <v>5681950.135548653</v>
       </c>
       <c r="AF4" t="n">
         <v>2.255615575543857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4672572.459685429</v>
+        <v>5139672.789278775</v>
       </c>
     </row>
     <row r="5">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3450.479687988069</v>
+        <v>3808.524355896804</v>
       </c>
       <c r="AB5" t="n">
-        <v>4721.098533525919</v>
+        <v>5210.991043974614</v>
       </c>
       <c r="AC5" t="n">
-        <v>4270.523515589435</v>
+        <v>4713.661372409344</v>
       </c>
       <c r="AD5" t="n">
-        <v>3450479.687988069</v>
+        <v>3808524.355896804</v>
       </c>
       <c r="AE5" t="n">
-        <v>4721098.53352592</v>
+        <v>5210991.043974614</v>
       </c>
       <c r="AF5" t="n">
         <v>2.378538842787856e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.20052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4270523.515589436</v>
+        <v>4713661.372409344</v>
       </c>
     </row>
     <row r="6">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3246.414855278535</v>
+        <v>3594.846293844866</v>
       </c>
       <c r="AB6" t="n">
-        <v>4441.888026707679</v>
+        <v>4918.627292664349</v>
       </c>
       <c r="AC6" t="n">
-        <v>4017.960467667531</v>
+        <v>4449.200407189041</v>
       </c>
       <c r="AD6" t="n">
-        <v>3246414.855278535</v>
+        <v>3594846.293844866</v>
       </c>
       <c r="AE6" t="n">
-        <v>4441888.026707679</v>
+        <v>4918627.292664349</v>
       </c>
       <c r="AF6" t="n">
         <v>2.455036155021246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.94791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4017960.467667531</v>
+        <v>4449200.40718904</v>
       </c>
     </row>
     <row r="7">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3117.454011133773</v>
+        <v>3456.239065968777</v>
       </c>
       <c r="AB7" t="n">
-        <v>4265.438110397896</v>
+        <v>4728.978768564948</v>
       </c>
       <c r="AC7" t="n">
-        <v>3858.350683721347</v>
+        <v>4277.651672056318</v>
       </c>
       <c r="AD7" t="n">
-        <v>3117454.011133773</v>
+        <v>3456239.065968777</v>
       </c>
       <c r="AE7" t="n">
-        <v>4265438.110397896</v>
+        <v>4728978.768564948</v>
       </c>
       <c r="AF7" t="n">
         <v>2.504627516055306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.56770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3858350.683721347</v>
+        <v>4277651.672056317</v>
       </c>
     </row>
     <row r="8">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3005.450977418056</v>
+        <v>3344.201866834278</v>
       </c>
       <c r="AB8" t="n">
-        <v>4112.19061844293</v>
+        <v>4575.684529976734</v>
       </c>
       <c r="AC8" t="n">
-        <v>3719.728917314362</v>
+        <v>4138.987620449153</v>
       </c>
       <c r="AD8" t="n">
-        <v>3005450.977418056</v>
+        <v>3344201.866834278</v>
       </c>
       <c r="AE8" t="n">
-        <v>4112190.61844293</v>
+        <v>4575684.529976734</v>
       </c>
       <c r="AF8" t="n">
         <v>2.54419509134844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.50651041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3719728.917314362</v>
+        <v>4138987.620449153</v>
       </c>
     </row>
     <row r="9">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2906.544676142244</v>
+        <v>3245.261400139687</v>
       </c>
       <c r="AB9" t="n">
-        <v>3976.862653599301</v>
+        <v>4440.309818499856</v>
       </c>
       <c r="AC9" t="n">
-        <v>3597.316463501424</v>
+        <v>4016.532881436034</v>
       </c>
       <c r="AD9" t="n">
-        <v>2906544.676142245</v>
+        <v>3245261.400139687</v>
       </c>
       <c r="AE9" t="n">
-        <v>3976862.653599301</v>
+        <v>4440309.818499857</v>
       </c>
       <c r="AF9" t="n">
         <v>2.57321131323007e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.73828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>3597316.463501424</v>
+        <v>4016532.881436034</v>
       </c>
     </row>
     <row r="10">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2834.784154372202</v>
+        <v>3163.787174830612</v>
       </c>
       <c r="AB10" t="n">
-        <v>3878.676741862736</v>
+        <v>4328.833189042833</v>
       </c>
       <c r="AC10" t="n">
-        <v>3508.501277376207</v>
+        <v>3915.695425035961</v>
       </c>
       <c r="AD10" t="n">
-        <v>2834784.154372202</v>
+        <v>3163787.174830612</v>
       </c>
       <c r="AE10" t="n">
-        <v>3878676.741862737</v>
+        <v>4328833.189042833</v>
       </c>
       <c r="AF10" t="n">
         <v>2.594050236217787e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.20442708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3508501.277376208</v>
+        <v>3915695.425035961</v>
       </c>
     </row>
     <row r="11">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2760.568253640918</v>
+        <v>3089.638593907033</v>
       </c>
       <c r="AB11" t="n">
-        <v>3777.131272307728</v>
+        <v>4227.379829418666</v>
       </c>
       <c r="AC11" t="n">
-        <v>3416.647164915571</v>
+        <v>3823.924631663643</v>
       </c>
       <c r="AD11" t="n">
-        <v>2760568.253640918</v>
+        <v>3089638.593907033</v>
       </c>
       <c r="AE11" t="n">
-        <v>3777131.272307727</v>
+        <v>4227379.829418667</v>
       </c>
       <c r="AF11" t="n">
         <v>2.610668617840902e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.78125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3416647.164915571</v>
+        <v>3823924.631663643</v>
       </c>
     </row>
     <row r="12">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2753.603884088242</v>
+        <v>3082.674224354358</v>
       </c>
       <c r="AB12" t="n">
-        <v>3767.602314639457</v>
+        <v>4217.850871750396</v>
       </c>
       <c r="AC12" t="n">
-        <v>3408.027637593184</v>
+        <v>3815.305104341257</v>
       </c>
       <c r="AD12" t="n">
-        <v>2753603.884088242</v>
+        <v>3082674.224354357</v>
       </c>
       <c r="AE12" t="n">
-        <v>3767602.314639458</v>
+        <v>4217850.871750396</v>
       </c>
       <c r="AF12" t="n">
         <v>2.614097807699641e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.69661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3408027.637593185</v>
+        <v>3815305.104341257</v>
       </c>
     </row>
     <row r="13">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2764.127646179723</v>
+        <v>3093.197986445839</v>
       </c>
       <c r="AB13" t="n">
-        <v>3782.001390208638</v>
+        <v>4232.249947319577</v>
       </c>
       <c r="AC13" t="n">
-        <v>3421.052485599272</v>
+        <v>3828.329952347344</v>
       </c>
       <c r="AD13" t="n">
-        <v>2764127.646179724</v>
+        <v>3093197.986445839</v>
       </c>
       <c r="AE13" t="n">
-        <v>3782001.390208638</v>
+        <v>4232249.947319577</v>
       </c>
       <c r="AF13" t="n">
         <v>2.613834023864353e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3421052.485599272</v>
+        <v>3828329.952347344</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3377.712023419484</v>
+        <v>3789.28488912989</v>
       </c>
       <c r="AB2" t="n">
-        <v>4621.534604580386</v>
+        <v>5184.666756758751</v>
       </c>
       <c r="AC2" t="n">
-        <v>4180.461828283615</v>
+        <v>4689.849438218996</v>
       </c>
       <c r="AD2" t="n">
-        <v>3377712.023419484</v>
+        <v>3789284.88912989</v>
       </c>
       <c r="AE2" t="n">
-        <v>4621534.604580387</v>
+        <v>5184666.756758751</v>
       </c>
       <c r="AF2" t="n">
         <v>2.798574532473936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4180461.828283615</v>
+        <v>4689849.438218996</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2465.789841537783</v>
+        <v>2811.874335070102</v>
       </c>
       <c r="AB3" t="n">
-        <v>3373.802444162478</v>
+        <v>3847.330516383708</v>
       </c>
       <c r="AC3" t="n">
-        <v>3051.811474052954</v>
+        <v>3480.146691662195</v>
       </c>
       <c r="AD3" t="n">
-        <v>2465789.841537782</v>
+        <v>2811874.335070102</v>
       </c>
       <c r="AE3" t="n">
-        <v>3373802.444162478</v>
+        <v>3847330.516383708</v>
       </c>
       <c r="AF3" t="n">
         <v>3.347170250588153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3051811.474052954</v>
+        <v>3480146.691662195</v>
       </c>
     </row>
     <row r="4">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2198.059309799579</v>
+        <v>2525.365520044741</v>
       </c>
       <c r="AB4" t="n">
-        <v>3007.481719200796</v>
+        <v>3455.316515789146</v>
       </c>
       <c r="AC4" t="n">
-        <v>2720.451884947263</v>
+        <v>3125.545957089287</v>
       </c>
       <c r="AD4" t="n">
-        <v>2198059.309799579</v>
+        <v>2525365.520044741</v>
       </c>
       <c r="AE4" t="n">
-        <v>3007481.719200796</v>
+        <v>3455316.515789146</v>
       </c>
       <c r="AF4" t="n">
         <v>3.524267257576703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.01432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2720451.884947263</v>
+        <v>3125545.957089287</v>
       </c>
     </row>
     <row r="5">
@@ -8401,28 +8401,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2181.085184684159</v>
+        <v>2508.458714737028</v>
       </c>
       <c r="AB5" t="n">
-        <v>2984.256972372158</v>
+        <v>3432.183878891521</v>
       </c>
       <c r="AC5" t="n">
-        <v>2699.443675359925</v>
+        <v>3104.621066590314</v>
       </c>
       <c r="AD5" t="n">
-        <v>2181085.184684159</v>
+        <v>2508458.714737028</v>
       </c>
       <c r="AE5" t="n">
-        <v>2984256.972372157</v>
+        <v>3432183.878891521</v>
       </c>
       <c r="AF5" t="n">
         <v>3.53531280894813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.79947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2699443.675359925</v>
+        <v>3104621.066590314</v>
       </c>
     </row>
   </sheetData>
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4655.347004281644</v>
+        <v>5129.271529222762</v>
       </c>
       <c r="AB2" t="n">
-        <v>6369.651150673389</v>
+        <v>7018.095593772285</v>
       </c>
       <c r="AC2" t="n">
-        <v>5761.740584714416</v>
+        <v>6348.298400261421</v>
       </c>
       <c r="AD2" t="n">
-        <v>4655347.004281645</v>
+        <v>5129271.529222762</v>
       </c>
       <c r="AE2" t="n">
-        <v>6369651.150673389</v>
+        <v>7018095.593772285</v>
       </c>
       <c r="AF2" t="n">
         <v>2.15413685248779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5761740.584714416</v>
+        <v>6348298.400261421</v>
       </c>
     </row>
     <row r="3">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3130.933803203594</v>
+        <v>3500.68570737671</v>
       </c>
       <c r="AB3" t="n">
-        <v>4283.881756594282</v>
+        <v>4789.792624186715</v>
       </c>
       <c r="AC3" t="n">
-        <v>3875.034094210569</v>
+        <v>4332.661538650324</v>
       </c>
       <c r="AD3" t="n">
-        <v>3130933.803203594</v>
+        <v>3500685.70737671</v>
       </c>
       <c r="AE3" t="n">
-        <v>4283881.756594282</v>
+        <v>4789792.624186715</v>
       </c>
       <c r="AF3" t="n">
         <v>2.736353236833957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3875034.094210569</v>
+        <v>4332661.538650324</v>
       </c>
     </row>
     <row r="4">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2741.743785596927</v>
+        <v>3083.082144803387</v>
       </c>
       <c r="AB4" t="n">
-        <v>3751.37480465302</v>
+        <v>4218.409006504937</v>
       </c>
       <c r="AC4" t="n">
-        <v>3393.348858384401</v>
+        <v>3815.809971498172</v>
       </c>
       <c r="AD4" t="n">
-        <v>2741743.785596927</v>
+        <v>3083082.144803387</v>
       </c>
       <c r="AE4" t="n">
-        <v>3751374.804653021</v>
+        <v>4218409.006504937</v>
       </c>
       <c r="AF4" t="n">
         <v>2.942329022314583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.55338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3393348.858384401</v>
+        <v>3815809.971498172</v>
       </c>
     </row>
     <row r="5">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2532.383293560689</v>
+        <v>2864.137597412185</v>
       </c>
       <c r="AB5" t="n">
-        <v>3464.918543115982</v>
+        <v>3918.839417612555</v>
       </c>
       <c r="AC5" t="n">
-        <v>3134.231580404581</v>
+        <v>3544.830883721132</v>
       </c>
       <c r="AD5" t="n">
-        <v>2532383.293560689</v>
+        <v>2864137.597412185</v>
       </c>
       <c r="AE5" t="n">
-        <v>3464918.543115982</v>
+        <v>3918839.417612555</v>
       </c>
       <c r="AF5" t="n">
         <v>3.050737330462281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.04036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3134231.580404581</v>
+        <v>3544830.883721132</v>
       </c>
     </row>
     <row r="6">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2391.221538948646</v>
+        <v>2723.008997189064</v>
       </c>
       <c r="AB6" t="n">
-        <v>3271.774802838682</v>
+        <v>3725.74104063285</v>
       </c>
       <c r="AC6" t="n">
-        <v>2959.521207620411</v>
+        <v>3370.161544825101</v>
       </c>
       <c r="AD6" t="n">
-        <v>2391221.538948646</v>
+        <v>2723008.997189065</v>
       </c>
       <c r="AE6" t="n">
-        <v>3271774.802838682</v>
+        <v>3725741.04063285</v>
       </c>
       <c r="AF6" t="n">
         <v>3.110043051978375e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.74479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2959521.207620411</v>
+        <v>3370161.544825101</v>
       </c>
     </row>
     <row r="7">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2385.566627874435</v>
+        <v>2707.939846823937</v>
       </c>
       <c r="AB7" t="n">
-        <v>3264.037504029879</v>
+        <v>3705.122764299287</v>
       </c>
       <c r="AC7" t="n">
-        <v>2952.522345750553</v>
+        <v>3351.511047846882</v>
       </c>
       <c r="AD7" t="n">
-        <v>2385566.627874435</v>
+        <v>2707939.846823937</v>
       </c>
       <c r="AE7" t="n">
-        <v>3264037.504029878</v>
+        <v>3705122.764299287</v>
       </c>
       <c r="AF7" t="n">
         <v>3.116101163316041e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2952522.345750553</v>
+        <v>3351511.047846882</v>
       </c>
     </row>
   </sheetData>
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2592.054432420532</v>
+        <v>2971.252907002454</v>
       </c>
       <c r="AB2" t="n">
-        <v>3546.563227808877</v>
+        <v>4065.399309787914</v>
       </c>
       <c r="AC2" t="n">
-        <v>3208.084210979417</v>
+        <v>3677.40330548537</v>
       </c>
       <c r="AD2" t="n">
-        <v>2592054.432420532</v>
+        <v>2971252.907002454</v>
       </c>
       <c r="AE2" t="n">
-        <v>3546563.227808877</v>
+        <v>4065399.309787914</v>
       </c>
       <c r="AF2" t="n">
         <v>3.482024357311612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3208084.210979417</v>
+        <v>3677403.30548537</v>
       </c>
     </row>
     <row r="3">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2033.492613042966</v>
+        <v>2366.469037087786</v>
       </c>
       <c r="AB3" t="n">
-        <v>2782.314304527963</v>
+        <v>3237.90733778934</v>
       </c>
       <c r="AC3" t="n">
-        <v>2516.774132306467</v>
+        <v>2928.886005902094</v>
       </c>
       <c r="AD3" t="n">
-        <v>2033492.613042966</v>
+        <v>2366469.037087786</v>
       </c>
       <c r="AE3" t="n">
-        <v>2782314.304527964</v>
+        <v>3237907.337789339</v>
       </c>
       <c r="AF3" t="n">
         <v>3.948852619821477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.52473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2516774.132306467</v>
+        <v>2928886.005902094</v>
       </c>
     </row>
     <row r="4">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2040.683049649465</v>
+        <v>2373.557988467799</v>
       </c>
       <c r="AB4" t="n">
-        <v>2792.152577112649</v>
+        <v>3247.606753809937</v>
       </c>
       <c r="AC4" t="n">
-        <v>2525.673453963772</v>
+        <v>2937.6597232709</v>
       </c>
       <c r="AD4" t="n">
-        <v>2040683.049649465</v>
+        <v>2373557.988467799</v>
       </c>
       <c r="AE4" t="n">
-        <v>2792152.57711265</v>
+        <v>3247606.753809937</v>
       </c>
       <c r="AF4" t="n">
         <v>3.953913088791774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.44010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2525673.453963772</v>
+        <v>2937659.723270901</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8796.827436682102</v>
+        <v>9437.480069129548</v>
       </c>
       <c r="AB2" t="n">
-        <v>12036.20738750572</v>
+        <v>12912.77658281977</v>
       </c>
       <c r="AC2" t="n">
-        <v>10887.48864736489</v>
+        <v>11680.39930895072</v>
       </c>
       <c r="AD2" t="n">
-        <v>8796827.436682103</v>
+        <v>9437480.069129547</v>
       </c>
       <c r="AE2" t="n">
-        <v>12036207.38750573</v>
+        <v>12912776.58281977</v>
       </c>
       <c r="AF2" t="n">
         <v>1.313570828298521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>128</v>
+        <v>127.5846354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10887488.64736489</v>
+        <v>11680399.30895072</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4731.972230765357</v>
+        <v>5168.670040729735</v>
       </c>
       <c r="AB3" t="n">
-        <v>6474.493166014821</v>
+        <v>7072.002375355783</v>
       </c>
       <c r="AC3" t="n">
-        <v>5856.576625258353</v>
+        <v>6397.060394269234</v>
       </c>
       <c r="AD3" t="n">
-        <v>4731972.230765358</v>
+        <v>5168670.040729735</v>
       </c>
       <c r="AE3" t="n">
-        <v>6474493.166014821</v>
+        <v>7072002.375355784</v>
       </c>
       <c r="AF3" t="n">
         <v>1.937536277601993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.49088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5856576.625258353</v>
+        <v>6397060.394269235</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3948.257287450747</v>
+        <v>4326.804021478506</v>
       </c>
       <c r="AB4" t="n">
-        <v>5402.179805508596</v>
+        <v>5920.124147308663</v>
       </c>
       <c r="AC4" t="n">
-        <v>4886.603346877629</v>
+        <v>5355.115807635726</v>
       </c>
       <c r="AD4" t="n">
-        <v>3948257.287450747</v>
+        <v>4326804.021478506</v>
       </c>
       <c r="AE4" t="n">
-        <v>5402179.805508597</v>
+        <v>5920124.147308663</v>
       </c>
       <c r="AF4" t="n">
         <v>2.173582613002687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.10286458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4886603.346877629</v>
+        <v>5355115.807635726</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3591.18912458622</v>
+        <v>3960.025918885295</v>
       </c>
       <c r="AB5" t="n">
-        <v>4913.623392341748</v>
+        <v>5418.282166232721</v>
       </c>
       <c r="AC5" t="n">
-        <v>4444.674072090211</v>
+        <v>4901.168920894047</v>
       </c>
       <c r="AD5" t="n">
-        <v>3591189.12458622</v>
+        <v>3960025.918885295</v>
       </c>
       <c r="AE5" t="n">
-        <v>4913623.392341748</v>
+        <v>5418282.166232721</v>
       </c>
       <c r="AF5" t="n">
         <v>2.298169773672192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4444674.07209021</v>
+        <v>4901168.920894047</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3386.809627964181</v>
+        <v>3736.296895703164</v>
       </c>
       <c r="AB6" t="n">
-        <v>4633.982348476427</v>
+        <v>5112.166246487016</v>
       </c>
       <c r="AC6" t="n">
-        <v>4191.721576972736</v>
+        <v>4624.268274892493</v>
       </c>
       <c r="AD6" t="n">
-        <v>3386809.627964181</v>
+        <v>3736296.895703164</v>
       </c>
       <c r="AE6" t="n">
-        <v>4633982.348476428</v>
+        <v>5112166.246487016</v>
       </c>
       <c r="AF6" t="n">
         <v>2.376165454835126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.53385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4191721.576972737</v>
+        <v>4624268.274892492</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3249.898083389889</v>
+        <v>3589.60910262234</v>
       </c>
       <c r="AB7" t="n">
-        <v>4446.653933078813</v>
+        <v>4911.46153658512</v>
       </c>
       <c r="AC7" t="n">
-        <v>4022.271522623595</v>
+        <v>4442.718540812811</v>
       </c>
       <c r="AD7" t="n">
-        <v>3249898.083389889</v>
+        <v>3589609.10262234</v>
       </c>
       <c r="AE7" t="n">
-        <v>4446653.933078812</v>
+        <v>4911461.53658512</v>
       </c>
       <c r="AF7" t="n">
         <v>2.428419987099401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.01041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4022271.522623594</v>
+        <v>4442718.540812811</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3128.807488253551</v>
+        <v>3468.551661874927</v>
       </c>
       <c r="AB8" t="n">
-        <v>4280.972438673239</v>
+        <v>4745.82540547714</v>
       </c>
       <c r="AC8" t="n">
-        <v>3872.402437508656</v>
+        <v>4292.890489586011</v>
       </c>
       <c r="AD8" t="n">
-        <v>3128807.488253551</v>
+        <v>3468551.661874927</v>
       </c>
       <c r="AE8" t="n">
-        <v>4280972.438673238</v>
+        <v>4745825.405477139</v>
       </c>
       <c r="AF8" t="n">
         <v>2.466516887469415e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.94270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3872402.437508657</v>
+        <v>4292890.489586012</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3046.948625848663</v>
+        <v>3376.950716382288</v>
       </c>
       <c r="AB9" t="n">
-        <v>4168.96953177273</v>
+        <v>4620.492950705597</v>
       </c>
       <c r="AC9" t="n">
-        <v>3771.08893084567</v>
+        <v>4179.519588392666</v>
       </c>
       <c r="AD9" t="n">
-        <v>3046948.625848663</v>
+        <v>3376950.716382288</v>
       </c>
       <c r="AE9" t="n">
-        <v>4168969.53177273</v>
+        <v>4620492.950705597</v>
       </c>
       <c r="AF9" t="n">
         <v>2.495089562746926e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.16145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3771088.93084567</v>
+        <v>4179519.588392666</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2953.888657674566</v>
+        <v>3283.85658278941</v>
       </c>
       <c r="AB10" t="n">
-        <v>4041.64077780088</v>
+        <v>4493.1174501005</v>
       </c>
       <c r="AC10" t="n">
-        <v>3655.91225444587</v>
+        <v>4064.300626792686</v>
       </c>
       <c r="AD10" t="n">
-        <v>2953888.657674566</v>
+        <v>3283856.58278941</v>
       </c>
       <c r="AE10" t="n">
-        <v>4041640.77780088</v>
+        <v>4493117.4501005</v>
       </c>
       <c r="AF10" t="n">
         <v>2.52031588866761e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.49739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3655912.25444587</v>
+        <v>4064300.626792686</v>
       </c>
     </row>
     <row r="11">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2887.397558333606</v>
+        <v>3217.36548344845</v>
       </c>
       <c r="AB11" t="n">
-        <v>3950.664722302298</v>
+        <v>4402.141394601917</v>
       </c>
       <c r="AC11" t="n">
-        <v>3573.61882599838</v>
+        <v>3982.007198345195</v>
       </c>
       <c r="AD11" t="n">
-        <v>2887397.558333606</v>
+        <v>3217365.48344845</v>
       </c>
       <c r="AE11" t="n">
-        <v>3950664.722302298</v>
+        <v>4402141.394601918</v>
       </c>
       <c r="AF11" t="n">
         <v>2.537819869918698e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.04166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3573618.82599838</v>
+        <v>3982007.198345196</v>
       </c>
     </row>
     <row r="12">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2825.715402981541</v>
+        <v>3155.75064790409</v>
       </c>
       <c r="AB12" t="n">
-        <v>3866.268476124958</v>
+        <v>4317.83725835542</v>
       </c>
       <c r="AC12" t="n">
-        <v>3497.277239105334</v>
+        <v>3905.748930540468</v>
       </c>
       <c r="AD12" t="n">
-        <v>2825715.402981541</v>
+        <v>3155750.64790409</v>
       </c>
       <c r="AE12" t="n">
-        <v>3866268.476124958</v>
+        <v>4317837.25835542</v>
       </c>
       <c r="AF12" t="n">
         <v>2.549145975434108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.7421875</v>
       </c>
       <c r="AH12" t="n">
-        <v>3497277.239105334</v>
+        <v>3905748.930540469</v>
       </c>
     </row>
     <row r="13">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2815.619846151509</v>
+        <v>3145.655091074058</v>
       </c>
       <c r="AB13" t="n">
-        <v>3852.455289885575</v>
+        <v>4304.024072116036</v>
       </c>
       <c r="AC13" t="n">
-        <v>3484.782363973708</v>
+        <v>3893.254055408844</v>
       </c>
       <c r="AD13" t="n">
-        <v>2815619.846151509</v>
+        <v>3145655.091074058</v>
       </c>
       <c r="AE13" t="n">
-        <v>3852455.289885575</v>
+        <v>4304024.072116036</v>
       </c>
       <c r="AF13" t="n">
         <v>2.552234913301947e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.6640625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3484782.363973708</v>
+        <v>3893254.055408844</v>
       </c>
     </row>
     <row r="14">
@@ -11306,28 +11306,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2824.662334037605</v>
+        <v>3154.697578960153</v>
       </c>
       <c r="AB14" t="n">
-        <v>3864.827620737742</v>
+        <v>4316.396402968204</v>
       </c>
       <c r="AC14" t="n">
-        <v>3495.97389693402</v>
+        <v>3904.445588369155</v>
       </c>
       <c r="AD14" t="n">
-        <v>2824662.334037605</v>
+        <v>3154697.578960153</v>
       </c>
       <c r="AE14" t="n">
-        <v>3864827.620737742</v>
+        <v>4316396.402968204</v>
       </c>
       <c r="AF14" t="n">
         <v>2.552234913301947e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.6640625</v>
       </c>
       <c r="AH14" t="n">
-        <v>3495973.89693402</v>
+        <v>3904445.588369155</v>
       </c>
     </row>
   </sheetData>
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2190.877825564411</v>
+        <v>2539.978038136809</v>
       </c>
       <c r="AB2" t="n">
-        <v>2997.655695645515</v>
+        <v>3475.310007701513</v>
       </c>
       <c r="AC2" t="n">
-        <v>2711.563643289187</v>
+        <v>3143.63129819458</v>
       </c>
       <c r="AD2" t="n">
-        <v>2190877.825564411</v>
+        <v>2539978.038136809</v>
       </c>
       <c r="AE2" t="n">
-        <v>2997655.695645515</v>
+        <v>3475310.007701513</v>
       </c>
       <c r="AF2" t="n">
         <v>3.994545173004071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.20182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2711563.643289187</v>
+        <v>3143631.29819458</v>
       </c>
     </row>
     <row r="3">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1950.792738652101</v>
+        <v>2290.702421831515</v>
       </c>
       <c r="AB3" t="n">
-        <v>2669.160687925418</v>
+        <v>3134.240112208548</v>
       </c>
       <c r="AC3" t="n">
-        <v>2414.41973806037</v>
+        <v>2835.112634832871</v>
       </c>
       <c r="AD3" t="n">
-        <v>1950792.738652101</v>
+        <v>2290702.421831516</v>
       </c>
       <c r="AE3" t="n">
-        <v>2669160.687925418</v>
+        <v>3134240.112208548</v>
       </c>
       <c r="AF3" t="n">
         <v>4.236792627760585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.90494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2414419.73806037</v>
+        <v>2835112.634832871</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6170.45014086835</v>
+        <v>6707.199011266734</v>
       </c>
       <c r="AB2" t="n">
-        <v>8442.682103784377</v>
+        <v>9177.085587952421</v>
       </c>
       <c r="AC2" t="n">
-        <v>7636.924373177631</v>
+        <v>8301.237419558413</v>
       </c>
       <c r="AD2" t="n">
-        <v>6170450.14086835</v>
+        <v>6707199.011266734</v>
       </c>
       <c r="AE2" t="n">
-        <v>8442682.103784377</v>
+        <v>9177085.58795242</v>
       </c>
       <c r="AF2" t="n">
         <v>1.722692941412688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>108.4049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7636924.373177632</v>
+        <v>8301237.419558413</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3795.217677649622</v>
+        <v>4188.208222131671</v>
       </c>
       <c r="AB3" t="n">
-        <v>5192.784259747606</v>
+        <v>5730.491260227179</v>
       </c>
       <c r="AC3" t="n">
-        <v>4697.192218115581</v>
+        <v>5183.581217145877</v>
       </c>
       <c r="AD3" t="n">
-        <v>3795217.677649622</v>
+        <v>4188208.222131671</v>
       </c>
       <c r="AE3" t="n">
-        <v>5192784.259747606</v>
+        <v>5730491.260227179</v>
       </c>
       <c r="AF3" t="n">
         <v>2.328188245995136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4697192.218115581</v>
+        <v>5183581.217145877</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3258.233450063034</v>
+        <v>3612.904384829491</v>
       </c>
       <c r="AB4" t="n">
-        <v>4458.058749491433</v>
+        <v>4943.335169416263</v>
       </c>
       <c r="AC4" t="n">
-        <v>4032.587879364555</v>
+        <v>4471.550198861473</v>
       </c>
       <c r="AD4" t="n">
-        <v>3258233.450063033</v>
+        <v>3612904.384829491</v>
       </c>
       <c r="AE4" t="n">
-        <v>4458058.749491434</v>
+        <v>4943335.169416263</v>
       </c>
       <c r="AF4" t="n">
         <v>2.549619972730168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4032587.879364555</v>
+        <v>4471550.198861473</v>
       </c>
     </row>
     <row r="5">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3006.238094235421</v>
+        <v>3351.286419799506</v>
       </c>
       <c r="AB5" t="n">
-        <v>4113.267586397593</v>
+        <v>4585.377927892177</v>
       </c>
       <c r="AC5" t="n">
-        <v>3720.703100958967</v>
+        <v>4147.755894072315</v>
       </c>
       <c r="AD5" t="n">
-        <v>3006238.094235421</v>
+        <v>3351286.419799506</v>
       </c>
       <c r="AE5" t="n">
-        <v>4113267.586397592</v>
+        <v>4585377.927892176</v>
       </c>
       <c r="AF5" t="n">
         <v>2.663204122713421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.12369791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3720703.100958967</v>
+        <v>4147755.894072315</v>
       </c>
     </row>
     <row r="6">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2837.293533913334</v>
+        <v>3172.753415693825</v>
       </c>
       <c r="AB6" t="n">
-        <v>3882.110185656926</v>
+        <v>4341.101195354512</v>
       </c>
       <c r="AC6" t="n">
-        <v>3511.607038113548</v>
+        <v>3926.792590043508</v>
       </c>
       <c r="AD6" t="n">
-        <v>2837293.533913334</v>
+        <v>3172753.415693825</v>
       </c>
       <c r="AE6" t="n">
-        <v>3882110.185656926</v>
+        <v>4341101.195354512</v>
       </c>
       <c r="AF6" t="n">
         <v>2.733763973460595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.30729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3511607.038113548</v>
+        <v>3926792.590043508</v>
       </c>
     </row>
     <row r="7">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2712.514082367306</v>
+        <v>3038.419685782985</v>
       </c>
       <c r="AB7" t="n">
-        <v>3711.381435170753</v>
+        <v>4157.29985970459</v>
       </c>
       <c r="AC7" t="n">
-        <v>3357.172399954477</v>
+        <v>3760.532995901225</v>
       </c>
       <c r="AD7" t="n">
-        <v>2712514.082367306</v>
+        <v>3038419.685782985</v>
       </c>
       <c r="AE7" t="n">
-        <v>3711381.435170753</v>
+        <v>4157299.859704589</v>
       </c>
       <c r="AF7" t="n">
         <v>2.782524845928153e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3357172.399954476</v>
+        <v>3760532.995901225</v>
       </c>
     </row>
     <row r="8">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2603.900671580127</v>
+        <v>2929.772109577025</v>
       </c>
       <c r="AB8" t="n">
-        <v>3562.771774846223</v>
+        <v>4008.643452746812</v>
       </c>
       <c r="AC8" t="n">
-        <v>3222.745837036357</v>
+        <v>3626.064147782925</v>
       </c>
       <c r="AD8" t="n">
-        <v>2603900.671580127</v>
+        <v>2929772.109577025</v>
       </c>
       <c r="AE8" t="n">
-        <v>3562771.774846223</v>
+        <v>4008643.452746812</v>
       </c>
       <c r="AF8" t="n">
         <v>2.816944285317018e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.2890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3222745.837036357</v>
+        <v>3626064.147782926</v>
       </c>
     </row>
     <row r="9">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2577.645742697135</v>
+        <v>2903.517180694033</v>
       </c>
       <c r="AB9" t="n">
-        <v>3526.848622862796</v>
+        <v>3972.720300763384</v>
       </c>
       <c r="AC9" t="n">
-        <v>3190.251140259769</v>
+        <v>3593.569451006338</v>
       </c>
       <c r="AD9" t="n">
-        <v>2577645.742697135</v>
+        <v>2903517.180694032</v>
       </c>
       <c r="AE9" t="n">
-        <v>3526848.622862796</v>
+        <v>3972720.300763384</v>
       </c>
       <c r="AF9" t="n">
         <v>2.826122802487382e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.08072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3190251.140259769</v>
+        <v>3593569.451006338</v>
       </c>
     </row>
     <row r="10">
@@ -12854,28 +12854,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2584.663040030667</v>
+        <v>2910.534478027565</v>
       </c>
       <c r="AB10" t="n">
-        <v>3536.449998655845</v>
+        <v>3982.321676556433</v>
       </c>
       <c r="AC10" t="n">
-        <v>3198.936174222745</v>
+        <v>3602.254484969313</v>
       </c>
       <c r="AD10" t="n">
-        <v>2584663.040030667</v>
+        <v>2910534.478027565</v>
       </c>
       <c r="AE10" t="n">
-        <v>3536449.998655845</v>
+        <v>3982321.676556433</v>
       </c>
       <c r="AF10" t="n">
         <v>2.827843774456825e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.03515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>3198936.174222745</v>
+        <v>3602254.484969313</v>
       </c>
     </row>
   </sheetData>
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7371.376018588381</v>
+        <v>7950.27162853013</v>
       </c>
       <c r="AB2" t="n">
-        <v>10085.84187079152</v>
+        <v>10877.91238338572</v>
       </c>
       <c r="AC2" t="n">
-        <v>9123.26327821077</v>
+        <v>9839.739692760897</v>
       </c>
       <c r="AD2" t="n">
-        <v>7371376.018588381</v>
+        <v>7950271.628530131</v>
       </c>
       <c r="AE2" t="n">
-        <v>10085841.87079152</v>
+        <v>10877912.38338572</v>
       </c>
       <c r="AF2" t="n">
         <v>1.501258983946518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.4153645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9123263.27821077</v>
+        <v>9839739.692760898</v>
       </c>
     </row>
     <row r="3">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4248.082890776401</v>
+        <v>4662.909963349842</v>
       </c>
       <c r="AB3" t="n">
-        <v>5812.414423350855</v>
+        <v>6379.9991249247</v>
       </c>
       <c r="AC3" t="n">
-        <v>5257.685748560909</v>
+        <v>5771.100962826657</v>
       </c>
       <c r="AD3" t="n">
-        <v>4248082.8907764</v>
+        <v>4662909.963349842</v>
       </c>
       <c r="AE3" t="n">
-        <v>5812414.423350855</v>
+        <v>6379999.1249247</v>
       </c>
       <c r="AF3" t="n">
         <v>2.118007039028604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.22265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5257685.748560909</v>
+        <v>5771100.962826657</v>
       </c>
     </row>
     <row r="4">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3602.936140536774</v>
+        <v>3969.576091780627</v>
       </c>
       <c r="AB4" t="n">
-        <v>4929.696177807065</v>
+        <v>5431.349134112008</v>
       </c>
       <c r="AC4" t="n">
-        <v>4459.212893469014</v>
+        <v>4912.988795698539</v>
       </c>
       <c r="AD4" t="n">
-        <v>3602936.140536774</v>
+        <v>3969576.091780627</v>
       </c>
       <c r="AE4" t="n">
-        <v>4929696.177807066</v>
+        <v>5431349.134112008</v>
       </c>
       <c r="AF4" t="n">
         <v>2.34542950007731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4459212.893469013</v>
+        <v>4912988.795698539</v>
       </c>
     </row>
     <row r="5">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3302.136757674848</v>
+        <v>3659.158772874196</v>
       </c>
       <c r="AB5" t="n">
-        <v>4518.129191843158</v>
+        <v>5006.622463738614</v>
       </c>
       <c r="AC5" t="n">
-        <v>4086.925283007623</v>
+        <v>4528.797442637972</v>
       </c>
       <c r="AD5" t="n">
-        <v>3302136.757674849</v>
+        <v>3659158.772874196</v>
       </c>
       <c r="AE5" t="n">
-        <v>4518129.191843158</v>
+        <v>5006622.463738614</v>
       </c>
       <c r="AF5" t="n">
         <v>2.46482629212788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>72</v>
+        <v>71.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4086925.283007624</v>
+        <v>4528797.442637973</v>
       </c>
     </row>
     <row r="6">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3118.616577475655</v>
+        <v>3465.886017015086</v>
       </c>
       <c r="AB6" t="n">
-        <v>4267.028784955665</v>
+        <v>4742.178152579953</v>
       </c>
       <c r="AC6" t="n">
-        <v>3859.789546531849</v>
+        <v>4289.591325386382</v>
       </c>
       <c r="AD6" t="n">
-        <v>3118616.577475654</v>
+        <v>3465886.017015086</v>
       </c>
       <c r="AE6" t="n">
-        <v>4267028.784955665</v>
+        <v>4742178.152579953</v>
       </c>
       <c r="AF6" t="n">
         <v>2.539009332993768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.42057291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3859789.546531849</v>
+        <v>4289591.325386382</v>
       </c>
     </row>
     <row r="7">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2989.526857332545</v>
+        <v>3327.179371857328</v>
       </c>
       <c r="AB7" t="n">
-        <v>4090.402534819336</v>
+        <v>4552.393601369791</v>
       </c>
       <c r="AC7" t="n">
-        <v>3700.020257812038</v>
+        <v>4117.919545379435</v>
       </c>
       <c r="AD7" t="n">
-        <v>2989526.857332545</v>
+        <v>3327179.371857327</v>
       </c>
       <c r="AE7" t="n">
-        <v>4090402.534819336</v>
+        <v>4552393.601369792</v>
       </c>
       <c r="AF7" t="n">
         <v>2.589367163654553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.07291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3700020.257812039</v>
+        <v>4117919.545379435</v>
       </c>
     </row>
     <row r="8">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2881.377666197213</v>
+        <v>3209.413255707347</v>
       </c>
       <c r="AB8" t="n">
-        <v>3942.428040302389</v>
+        <v>4391.260805779012</v>
       </c>
       <c r="AC8" t="n">
-        <v>3566.168241368287</v>
+        <v>3972.165037648547</v>
       </c>
       <c r="AD8" t="n">
-        <v>2881377.666197213</v>
+        <v>3209413.255707347</v>
       </c>
       <c r="AE8" t="n">
-        <v>3942428.040302388</v>
+        <v>4391260.805779012</v>
       </c>
       <c r="AF8" t="n">
         <v>2.626458684087497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3566168.241368287</v>
+        <v>3972165.037648547</v>
       </c>
     </row>
     <row r="9">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2779.823688459511</v>
+        <v>3107.825112550864</v>
       </c>
       <c r="AB9" t="n">
-        <v>3803.477407716359</v>
+        <v>4252.263426559734</v>
       </c>
       <c r="AC9" t="n">
-        <v>3440.478862137835</v>
+        <v>3846.433373217915</v>
       </c>
       <c r="AD9" t="n">
-        <v>2779823.688459511</v>
+        <v>3107825.112550864</v>
       </c>
       <c r="AE9" t="n">
-        <v>3803477.407716359</v>
+        <v>4252263.426559734</v>
       </c>
       <c r="AF9" t="n">
         <v>2.654345009668469e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3440478.862137835</v>
+        <v>3846433.373217915</v>
       </c>
     </row>
     <row r="10">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2702.624153397842</v>
+        <v>3030.692897296899</v>
       </c>
       <c r="AB10" t="n">
-        <v>3697.84959804186</v>
+        <v>4146.727726816077</v>
       </c>
       <c r="AC10" t="n">
-        <v>3344.932022369113</v>
+        <v>3750.969852537512</v>
       </c>
       <c r="AD10" t="n">
-        <v>2702624.153397842</v>
+        <v>3030692.897296899</v>
       </c>
       <c r="AE10" t="n">
-        <v>3697849.59804186</v>
+        <v>4146727.726816077</v>
       </c>
       <c r="AF10" t="n">
         <v>2.674650586547818e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.8984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3344932.022369113</v>
+        <v>3750969.852537511</v>
       </c>
     </row>
     <row r="11">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2697.211248787328</v>
+        <v>3025.279992686385</v>
       </c>
       <c r="AB11" t="n">
-        <v>3690.443423153255</v>
+        <v>4139.321551927472</v>
       </c>
       <c r="AC11" t="n">
-        <v>3338.232682417244</v>
+        <v>3744.270512585644</v>
       </c>
       <c r="AD11" t="n">
-        <v>2697211.248787328</v>
+        <v>3025279.992686384</v>
       </c>
       <c r="AE11" t="n">
-        <v>3690443.423153255</v>
+        <v>4139321.551927472</v>
       </c>
       <c r="AF11" t="n">
         <v>2.677628737823455e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.82682291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3338232.682417244</v>
+        <v>3744270.512585644</v>
       </c>
     </row>
     <row r="12">
@@ -14211,28 +14211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2707.824834808741</v>
+        <v>3035.893578707798</v>
       </c>
       <c r="AB12" t="n">
-        <v>3704.965399786122</v>
+        <v>4153.843528560339</v>
       </c>
       <c r="AC12" t="n">
-        <v>3351.368701981993</v>
+        <v>3757.406532150391</v>
       </c>
       <c r="AD12" t="n">
-        <v>2707824.834808741</v>
+        <v>3035893.578707797</v>
       </c>
       <c r="AE12" t="n">
-        <v>3704965.399786122</v>
+        <v>4153843.528560339</v>
       </c>
       <c r="AF12" t="n">
         <v>2.67708725577334e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.83984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>3351368.701981992</v>
+        <v>3757406.532150391</v>
       </c>
     </row>
   </sheetData>
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10488.8570133899</v>
+        <v>11191.61030462353</v>
       </c>
       <c r="AB2" t="n">
-        <v>14351.31690143407</v>
+        <v>15312.85495778708</v>
       </c>
       <c r="AC2" t="n">
-        <v>12981.64735856044</v>
+        <v>13851.41757234222</v>
       </c>
       <c r="AD2" t="n">
-        <v>10488857.0133899</v>
+        <v>11191610.30462353</v>
       </c>
       <c r="AE2" t="n">
-        <v>14351316.90143407</v>
+        <v>15312854.95778708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.153062795466327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>139</v>
+        <v>138.9778645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12981647.35856044</v>
+        <v>13851417.57234222</v>
       </c>
     </row>
     <row r="3">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5237.906014961824</v>
+        <v>5696.622597194947</v>
       </c>
       <c r="AB3" t="n">
-        <v>7166.734089775741</v>
+        <v>7794.370354734478</v>
       </c>
       <c r="AC3" t="n">
-        <v>6482.751046821743</v>
+        <v>7050.486587545826</v>
       </c>
       <c r="AD3" t="n">
-        <v>5237906.014961824</v>
+        <v>5696622.597194947</v>
       </c>
       <c r="AE3" t="n">
-        <v>7166734.089775741</v>
+        <v>7794370.354734478</v>
       </c>
       <c r="AF3" t="n">
         <v>1.782632620611015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>90</v>
+        <v>89.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>6482751.046821743</v>
+        <v>7050486.587545826</v>
       </c>
     </row>
     <row r="4">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4303.114894104831</v>
+        <v>4693.526807949193</v>
       </c>
       <c r="AB4" t="n">
-        <v>5887.711638145456</v>
+        <v>6421.890442425392</v>
       </c>
       <c r="AC4" t="n">
-        <v>5325.796702855816</v>
+        <v>5808.994231779914</v>
       </c>
       <c r="AD4" t="n">
-        <v>4303114.894104831</v>
+        <v>4693526.807949194</v>
       </c>
       <c r="AE4" t="n">
-        <v>5887711.638145456</v>
+        <v>6421890.442425393</v>
       </c>
       <c r="AF4" t="n">
         <v>2.024566607365209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.14713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5325796.702855816</v>
+        <v>5808994.231779914</v>
       </c>
     </row>
     <row r="5">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3894.713852016172</v>
+        <v>4265.565930488212</v>
       </c>
       <c r="AB5" t="n">
-        <v>5328.919314977349</v>
+        <v>5836.335489581835</v>
       </c>
       <c r="AC5" t="n">
-        <v>4820.334734740942</v>
+        <v>5279.323821804231</v>
       </c>
       <c r="AD5" t="n">
-        <v>3894713.852016172</v>
+        <v>4265565.930488212</v>
       </c>
       <c r="AE5" t="n">
-        <v>5328919.314977349</v>
+        <v>5836335.489581835</v>
       </c>
       <c r="AF5" t="n">
         <v>2.153778553495374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.40104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4820334.734740942</v>
+        <v>5279323.821804231</v>
       </c>
     </row>
     <row r="6">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3654.835338557989</v>
+        <v>4015.991901860963</v>
       </c>
       <c r="AB6" t="n">
-        <v>5000.706950170718</v>
+        <v>5494.857293184947</v>
       </c>
       <c r="AC6" t="n">
-        <v>4523.446497382522</v>
+        <v>4970.435825203816</v>
       </c>
       <c r="AD6" t="n">
-        <v>3654835.338557989</v>
+        <v>4015991.901860963</v>
       </c>
       <c r="AE6" t="n">
-        <v>5000706.950170718</v>
+        <v>5494857.293184946</v>
       </c>
       <c r="AF6" t="n">
         <v>2.234997491062906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.68619791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4523446.497382522</v>
+        <v>4970435.825203815</v>
       </c>
     </row>
     <row r="7">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3508.718505944501</v>
+        <v>3860.044914462998</v>
       </c>
       <c r="AB7" t="n">
-        <v>4800.78345356923</v>
+        <v>5281.483745131514</v>
       </c>
       <c r="AC7" t="n">
-        <v>4342.603418702297</v>
+        <v>4777.426349104955</v>
       </c>
       <c r="AD7" t="n">
-        <v>3508718.505944501</v>
+        <v>3860044.914462999</v>
       </c>
       <c r="AE7" t="n">
-        <v>4800783.45356923</v>
+        <v>5281483.745131514</v>
       </c>
       <c r="AF7" t="n">
         <v>2.288405095463374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.01953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>4342603.418702297</v>
+        <v>4777426.349104955</v>
       </c>
     </row>
     <row r="8">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3381.734734247627</v>
+        <v>3733.094297155048</v>
       </c>
       <c r="AB8" t="n">
-        <v>4627.038655004927</v>
+        <v>5107.784309864805</v>
       </c>
       <c r="AC8" t="n">
-        <v>4185.440579860621</v>
+        <v>4620.304544151419</v>
       </c>
       <c r="AD8" t="n">
-        <v>3381734.734247627</v>
+        <v>3733094.297155048</v>
       </c>
       <c r="AE8" t="n">
-        <v>4627038.655004927</v>
+        <v>5107784.309864805</v>
       </c>
       <c r="AF8" t="n">
         <v>2.328030092276624e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>4185440.579860622</v>
+        <v>4620304.544151419</v>
       </c>
     </row>
     <row r="9">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3284.169046152017</v>
+        <v>3625.799939501448</v>
       </c>
       <c r="AB9" t="n">
-        <v>4493.54497625813</v>
+        <v>4960.979436230155</v>
       </c>
       <c r="AC9" t="n">
-        <v>4064.687350453868</v>
+        <v>4487.510521614531</v>
       </c>
       <c r="AD9" t="n">
-        <v>3284169.046152017</v>
+        <v>3625799.939501448</v>
       </c>
       <c r="AE9" t="n">
-        <v>4493544.97625813</v>
+        <v>4960979.436230155</v>
       </c>
       <c r="AF9" t="n">
         <v>2.359287077340493e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.91666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4064687.350453869</v>
+        <v>4487510.521614531</v>
       </c>
     </row>
     <row r="10">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3206.245213952547</v>
+        <v>3538.080117936282</v>
       </c>
       <c r="AB10" t="n">
-        <v>4386.926151285957</v>
+        <v>4840.957306439288</v>
       </c>
       <c r="AC10" t="n">
-        <v>3968.244076496584</v>
+        <v>4378.943135438792</v>
       </c>
       <c r="AD10" t="n">
-        <v>3206245.213952547</v>
+        <v>3538080.117936282</v>
       </c>
       <c r="AE10" t="n">
-        <v>4386926.151285957</v>
+        <v>4840957.306439288</v>
       </c>
       <c r="AF10" t="n">
         <v>2.383652758610753e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.22005208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3968244.076496583</v>
+        <v>4378943.135438791</v>
       </c>
     </row>
     <row r="11">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3127.300111463425</v>
+        <v>3468.896839394075</v>
       </c>
       <c r="AB11" t="n">
-        <v>4278.909979248217</v>
+        <v>4746.297692586993</v>
       </c>
       <c r="AC11" t="n">
-        <v>3870.536816316479</v>
+        <v>4293.317702276961</v>
       </c>
       <c r="AD11" t="n">
-        <v>3127300.111463425</v>
+        <v>3468896.839394074</v>
       </c>
       <c r="AE11" t="n">
-        <v>4278909.979248216</v>
+        <v>4746297.692586993</v>
       </c>
       <c r="AF11" t="n">
         <v>2.402849962035805e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.68619791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3870536.816316479</v>
+        <v>4293317.702276962</v>
       </c>
     </row>
     <row r="12">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3066.894391405162</v>
+        <v>3398.695129970117</v>
       </c>
       <c r="AB12" t="n">
-        <v>4196.260208152206</v>
+        <v>4650.244616672291</v>
       </c>
       <c r="AC12" t="n">
-        <v>3795.775023374194</v>
+        <v>4206.431797116222</v>
       </c>
       <c r="AD12" t="n">
-        <v>3066894.391405162</v>
+        <v>3398695.129970117</v>
       </c>
       <c r="AE12" t="n">
-        <v>4196260.208152207</v>
+        <v>4650244.616672291</v>
       </c>
       <c r="AF12" t="n">
         <v>2.418847631556683e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.24348958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3795775.023374194</v>
+        <v>4206431.797116222</v>
       </c>
     </row>
     <row r="13">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2998.664031585889</v>
+        <v>3330.532089958549</v>
       </c>
       <c r="AB13" t="n">
-        <v>4102.90441973644</v>
+        <v>4556.980938187366</v>
       </c>
       <c r="AC13" t="n">
-        <v>3711.32898037916</v>
+        <v>4122.069073209507</v>
       </c>
       <c r="AD13" t="n">
-        <v>2998664.031585889</v>
+        <v>3330532.089958549</v>
       </c>
       <c r="AE13" t="n">
-        <v>4102904.41973644</v>
+        <v>4556980.938187365</v>
       </c>
       <c r="AF13" t="n">
         <v>2.432384121151271e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.87890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3711328.98037916</v>
+        <v>4122069.073209507</v>
       </c>
     </row>
     <row r="14">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2951.520738761637</v>
+        <v>3283.388797134297</v>
       </c>
       <c r="AB14" t="n">
-        <v>4038.400886679002</v>
+        <v>4492.477405129927</v>
       </c>
       <c r="AC14" t="n">
-        <v>3652.981573985448</v>
+        <v>4063.721666815796</v>
       </c>
       <c r="AD14" t="n">
-        <v>2951520.738761637</v>
+        <v>3283388.797134297</v>
       </c>
       <c r="AE14" t="n">
-        <v>4038400.886679002</v>
+        <v>4492477.405129927</v>
       </c>
       <c r="AF14" t="n">
         <v>2.442474958849056e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.59895833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3652981.573985448</v>
+        <v>4063721.666815796</v>
       </c>
     </row>
     <row r="15">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2937.311492475083</v>
+        <v>3269.078065621257</v>
       </c>
       <c r="AB15" t="n">
-        <v>4018.959169042033</v>
+        <v>4472.896830928869</v>
       </c>
       <c r="AC15" t="n">
-        <v>3635.395346593131</v>
+        <v>4046.009835134979</v>
       </c>
       <c r="AD15" t="n">
-        <v>2937311.492475083</v>
+        <v>3269078.065621257</v>
       </c>
       <c r="AE15" t="n">
-        <v>4018959.169042033</v>
+        <v>4472896.83092887</v>
       </c>
       <c r="AF15" t="n">
         <v>2.446412846731118e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.49479166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3635395.346593131</v>
+        <v>4046009.835134979</v>
       </c>
     </row>
     <row r="16">
@@ -15992,28 +15992,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2948.116465021139</v>
+        <v>3279.984523393799</v>
       </c>
       <c r="AB16" t="n">
-        <v>4033.743009161295</v>
+        <v>4487.819527612219</v>
       </c>
       <c r="AC16" t="n">
-        <v>3648.768237760658</v>
+        <v>4059.508330591006</v>
       </c>
       <c r="AD16" t="n">
-        <v>2948116.465021139</v>
+        <v>3279984.523393799</v>
       </c>
       <c r="AE16" t="n">
-        <v>4033743.009161294</v>
+        <v>4487819.527612219</v>
       </c>
       <c r="AF16" t="n">
         <v>2.445920610745861e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>66</v>
+        <v>65.5078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>3648768.237760658</v>
+        <v>4059508.330591006</v>
       </c>
     </row>
   </sheetData>
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5122.061361551319</v>
+        <v>5607.432552355564</v>
       </c>
       <c r="AB2" t="n">
-        <v>7008.230324274067</v>
+        <v>7672.336600598151</v>
       </c>
       <c r="AC2" t="n">
-        <v>6339.374658238122</v>
+        <v>6940.099563628824</v>
       </c>
       <c r="AD2" t="n">
-        <v>5122061.361551319</v>
+        <v>5607432.552355563</v>
       </c>
       <c r="AE2" t="n">
-        <v>7008230.324274067</v>
+        <v>7672336.600598151</v>
       </c>
       <c r="AF2" t="n">
         <v>1.995266535487997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>100.1106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6339374.658238122</v>
+        <v>6940099.563628824</v>
       </c>
     </row>
     <row r="3">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3353.019314065763</v>
+        <v>3733.639177569959</v>
       </c>
       <c r="AB3" t="n">
-        <v>4587.74895027717</v>
+        <v>5108.529839286916</v>
       </c>
       <c r="AC3" t="n">
-        <v>4149.900629408636</v>
+        <v>4620.97892129184</v>
       </c>
       <c r="AD3" t="n">
-        <v>3353019.314065763</v>
+        <v>3733639.177569959</v>
       </c>
       <c r="AE3" t="n">
-        <v>4587748.95027717</v>
+        <v>5108529.839286916</v>
       </c>
       <c r="AF3" t="n">
         <v>2.584979326693277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.27864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4149900.629408636</v>
+        <v>4620978.92129184</v>
       </c>
     </row>
     <row r="4">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2917.160028944972</v>
+        <v>3269.220666481549</v>
       </c>
       <c r="AB4" t="n">
-        <v>3991.387047620307</v>
+        <v>4473.091943717028</v>
       </c>
       <c r="AC4" t="n">
-        <v>3610.454669742179</v>
+        <v>4046.186326632478</v>
       </c>
       <c r="AD4" t="n">
-        <v>2917160.028944972</v>
+        <v>3269220.666481549</v>
       </c>
       <c r="AE4" t="n">
-        <v>3991387.047620307</v>
+        <v>4473091.943717028</v>
       </c>
       <c r="AF4" t="n">
         <v>2.796073187436894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.43880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3610454.669742179</v>
+        <v>4046186.326632478</v>
       </c>
     </row>
     <row r="5">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2688.696046903772</v>
+        <v>3031.304262258848</v>
       </c>
       <c r="AB5" t="n">
-        <v>3678.792548271981</v>
+        <v>4147.564223328534</v>
       </c>
       <c r="AC5" t="n">
-        <v>3327.693750682533</v>
+        <v>3751.72651499685</v>
       </c>
       <c r="AD5" t="n">
-        <v>2688696.046903772</v>
+        <v>3031304.262258848</v>
       </c>
       <c r="AE5" t="n">
-        <v>3678792.548271981</v>
+        <v>4147564.223328535</v>
       </c>
       <c r="AF5" t="n">
         <v>2.906222454888869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.73046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3327693.750682533</v>
+        <v>3751726.51499685</v>
       </c>
     </row>
     <row r="6">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2535.633828284931</v>
+        <v>2859.203570691453</v>
       </c>
       <c r="AB6" t="n">
-        <v>3469.366068129161</v>
+        <v>3912.088464579353</v>
       </c>
       <c r="AC6" t="n">
-        <v>3138.254639872642</v>
+        <v>3538.724232170397</v>
       </c>
       <c r="AD6" t="n">
-        <v>2535633.828284931</v>
+        <v>2859203.570691453</v>
       </c>
       <c r="AE6" t="n">
-        <v>3469366.068129161</v>
+        <v>3912088.464579353</v>
       </c>
       <c r="AF6" t="n">
         <v>2.975564333563371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.13541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3138254.639872642</v>
+        <v>3538724.232170396</v>
       </c>
     </row>
     <row r="7">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2451.985272792637</v>
+        <v>2775.520849780377</v>
       </c>
       <c r="AB7" t="n">
-        <v>3354.914424190778</v>
+        <v>3797.590074007722</v>
       </c>
       <c r="AC7" t="n">
-        <v>3034.726100197851</v>
+        <v>3435.153407295426</v>
       </c>
       <c r="AD7" t="n">
-        <v>2451985.272792637</v>
+        <v>2775520.849780377</v>
       </c>
       <c r="AE7" t="n">
-        <v>3354914.424190778</v>
+        <v>3797590.074007722</v>
       </c>
       <c r="AF7" t="n">
         <v>3.006246580764478e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.45182291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3034726.100197851</v>
+        <v>3435153.407295426</v>
       </c>
     </row>
     <row r="8">
@@ -16925,28 +16925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2454.828265253589</v>
+        <v>2778.363842241329</v>
       </c>
       <c r="AB8" t="n">
-        <v>3358.804331899829</v>
+        <v>3801.479981716773</v>
       </c>
       <c r="AC8" t="n">
-        <v>3038.244760574669</v>
+        <v>3438.672067672243</v>
       </c>
       <c r="AD8" t="n">
-        <v>2454828.265253589</v>
+        <v>2778363.842241329</v>
       </c>
       <c r="AE8" t="n">
-        <v>3358804.331899829</v>
+        <v>3801479.981716773</v>
       </c>
       <c r="AF8" t="n">
         <v>3.008087515596544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.40625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3038244.760574669</v>
+        <v>3438672.067672243</v>
       </c>
     </row>
   </sheetData>
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3793.512960814586</v>
+        <v>4225.786079708293</v>
       </c>
       <c r="AB2" t="n">
-        <v>5190.451790967111</v>
+        <v>5781.90694278159</v>
       </c>
       <c r="AC2" t="n">
-        <v>4695.082356881856</v>
+        <v>5230.089859119657</v>
       </c>
       <c r="AD2" t="n">
-        <v>3793512.960814586</v>
+        <v>4225786.079708293</v>
       </c>
       <c r="AE2" t="n">
-        <v>5190451.790967111</v>
+        <v>5781906.94278159</v>
       </c>
       <c r="AF2" t="n">
         <v>2.546812125930603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.18619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4695082.356881856</v>
+        <v>5230089.859119657</v>
       </c>
     </row>
     <row r="3">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2699.809621845433</v>
+        <v>3047.54267125888</v>
       </c>
       <c r="AB3" t="n">
-        <v>3693.998631803483</v>
+        <v>4169.782330910424</v>
       </c>
       <c r="AC3" t="n">
-        <v>3341.448586943662</v>
+        <v>3771.824157574433</v>
       </c>
       <c r="AD3" t="n">
-        <v>2699809.621845433</v>
+        <v>3047542.67125888</v>
       </c>
       <c r="AE3" t="n">
-        <v>3693998.631803484</v>
+        <v>4169782.330910424</v>
       </c>
       <c r="AF3" t="n">
         <v>3.108506307128996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.06640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3341448.586943662</v>
+        <v>3771824.157574433</v>
       </c>
     </row>
     <row r="4">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2368.016890730486</v>
+        <v>2706.347995745429</v>
       </c>
       <c r="AB4" t="n">
-        <v>3240.025179429765</v>
+        <v>3702.944723426157</v>
       </c>
       <c r="AC4" t="n">
-        <v>2930.801723708766</v>
+        <v>3349.540876137787</v>
       </c>
       <c r="AD4" t="n">
-        <v>2368016.890730486</v>
+        <v>2706347.995745429</v>
       </c>
       <c r="AE4" t="n">
-        <v>3240025.179429765</v>
+        <v>3702944.723426158</v>
       </c>
       <c r="AF4" t="n">
         <v>3.306669223228803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.68489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2930801.723708766</v>
+        <v>3349540.876137787</v>
       </c>
     </row>
     <row r="5">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2249.872704275891</v>
+        <v>2578.735556114483</v>
       </c>
       <c r="AB5" t="n">
-        <v>3078.375091368929</v>
+        <v>3528.339753659587</v>
       </c>
       <c r="AC5" t="n">
-        <v>2784.579293175138</v>
+        <v>3191.599959626129</v>
       </c>
       <c r="AD5" t="n">
-        <v>2249872.704275891</v>
+        <v>2578735.556114483</v>
       </c>
       <c r="AE5" t="n">
-        <v>3078375.091368929</v>
+        <v>3528339.753659587</v>
       </c>
       <c r="AF5" t="n">
         <v>3.373304992551096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.33072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2784579.293175138</v>
+        <v>3191599.959626129</v>
       </c>
     </row>
     <row r="6">
@@ -17646,28 +17646,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2259.123522996691</v>
+        <v>2578.653772304198</v>
       </c>
       <c r="AB6" t="n">
-        <v>3091.032469660046</v>
+        <v>3528.227853442307</v>
       </c>
       <c r="AC6" t="n">
-        <v>2796.028669046892</v>
+        <v>3191.498739008534</v>
       </c>
       <c r="AD6" t="n">
-        <v>2259123.522996691</v>
+        <v>2578653.772304198</v>
       </c>
       <c r="AE6" t="n">
-        <v>3091032.469660046</v>
+        <v>3528227.853442307</v>
       </c>
       <c r="AF6" t="n">
         <v>3.375049384418172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.29817708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2796028.669046892</v>
+        <v>3191498.739008534</v>
       </c>
     </row>
   </sheetData>
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2987.74451757594</v>
+        <v>3378.45949847207</v>
       </c>
       <c r="AB2" t="n">
-        <v>4087.963858933068</v>
+        <v>4622.557332923606</v>
       </c>
       <c r="AC2" t="n">
-        <v>3697.814325729653</v>
+        <v>4181.386948869167</v>
       </c>
       <c r="AD2" t="n">
-        <v>2987744.51757594</v>
+        <v>3378459.49847207</v>
       </c>
       <c r="AE2" t="n">
-        <v>4087963.858933067</v>
+        <v>4622557.332923606</v>
       </c>
       <c r="AF2" t="n">
         <v>3.101139178089853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.25911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3697814.325729653</v>
+        <v>4181386.948869167</v>
       </c>
     </row>
     <row r="3">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2232.133496837657</v>
+        <v>2567.012673227874</v>
       </c>
       <c r="AB3" t="n">
-        <v>3054.103525153336</v>
+        <v>3512.299988117035</v>
       </c>
       <c r="AC3" t="n">
-        <v>2762.624171173805</v>
+        <v>3177.091006795007</v>
       </c>
       <c r="AD3" t="n">
-        <v>2232133.496837657</v>
+        <v>2567012.673227874</v>
       </c>
       <c r="AE3" t="n">
-        <v>3054103.525153336</v>
+        <v>3512299.988117035</v>
       </c>
       <c r="AF3" t="n">
         <v>3.634386230696333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.18880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2762624.171173805</v>
+        <v>3177091.006795007</v>
       </c>
     </row>
     <row r="4">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2108.832744740549</v>
+        <v>2434.405953713116</v>
       </c>
       <c r="AB4" t="n">
-        <v>2885.397996488626</v>
+        <v>3330.861624281354</v>
       </c>
       <c r="AC4" t="n">
-        <v>2610.019661385274</v>
+        <v>3012.968865753467</v>
       </c>
       <c r="AD4" t="n">
-        <v>2108832.744740549</v>
+        <v>2434405.953713116</v>
       </c>
       <c r="AE4" t="n">
-        <v>2885397.996488626</v>
+        <v>3330861.624281354</v>
       </c>
       <c r="AF4" t="n">
         <v>3.724109651009988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.49609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2610019.661385274</v>
+        <v>3012968.865753467</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1866.125039820442</v>
+        <v>2212.529896166062</v>
       </c>
       <c r="AB2" t="n">
-        <v>2553.314607108692</v>
+        <v>3027.281013864635</v>
       </c>
       <c r="AC2" t="n">
-        <v>2309.629844605796</v>
+        <v>2738.361562716868</v>
       </c>
       <c r="AD2" t="n">
-        <v>1866125.039820442</v>
+        <v>2212529.896166062</v>
       </c>
       <c r="AE2" t="n">
-        <v>2553314.607108692</v>
+        <v>3027281.013864635</v>
       </c>
       <c r="AF2" t="n">
         <v>4.587611926789495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2309629.844605797</v>
+        <v>2738361.562716868</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1878.488456561386</v>
+        <v>2224.791827680522</v>
       </c>
       <c r="AB3" t="n">
-        <v>2570.230779329104</v>
+        <v>3044.058329520959</v>
       </c>
       <c r="AC3" t="n">
-        <v>2324.931561091489</v>
+        <v>2753.537674914062</v>
       </c>
       <c r="AD3" t="n">
-        <v>1878488.456561386</v>
+        <v>2224791.827680522</v>
       </c>
       <c r="AE3" t="n">
-        <v>2570230.779329104</v>
+        <v>3044058.329520958</v>
       </c>
       <c r="AF3" t="n">
         <v>4.594866706748272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.42447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2324931.561091489</v>
+        <v>2753537.674914062</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6747.030808460422</v>
+        <v>7304.913553352678</v>
       </c>
       <c r="AB2" t="n">
-        <v>9231.585210127698</v>
+        <v>9994.904993738999</v>
       </c>
       <c r="AC2" t="n">
-        <v>8350.535674283981</v>
+        <v>9041.005289073435</v>
       </c>
       <c r="AD2" t="n">
-        <v>6747030.808460422</v>
+        <v>7304913.553352678</v>
       </c>
       <c r="AE2" t="n">
-        <v>9231585.210127698</v>
+        <v>9994904.993739</v>
       </c>
       <c r="AF2" t="n">
         <v>1.606539281602934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>113</v>
+        <v>112.8190104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8350535.674283981</v>
+        <v>9041005.289073436</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4015.279854104761</v>
+        <v>4419.269801340322</v>
       </c>
       <c r="AB3" t="n">
-        <v>5493.883038031581</v>
+        <v>6046.639906617911</v>
       </c>
       <c r="AC3" t="n">
-        <v>4969.554551594912</v>
+        <v>5469.557080442479</v>
       </c>
       <c r="AD3" t="n">
-        <v>4015279.854104761</v>
+        <v>4419269.801340322</v>
       </c>
       <c r="AE3" t="n">
-        <v>5493883.038031581</v>
+        <v>6046639.906617911</v>
       </c>
       <c r="AF3" t="n">
         <v>2.218421683433337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.69921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4969554.551594912</v>
+        <v>5469557.080442479</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3432.179727728387</v>
+        <v>3797.620614387374</v>
       </c>
       <c r="AB4" t="n">
-        <v>4696.059720561354</v>
+        <v>5196.072063802287</v>
       </c>
       <c r="AC4" t="n">
-        <v>4247.874371792013</v>
+        <v>4700.166238765744</v>
       </c>
       <c r="AD4" t="n">
-        <v>3432179.727728387</v>
+        <v>3797620.614387374</v>
       </c>
       <c r="AE4" t="n">
-        <v>4696059.720561354</v>
+        <v>5196072.063802287</v>
       </c>
       <c r="AF4" t="n">
         <v>2.442240359990044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.21223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4247874.371792014</v>
+        <v>4700166.238765744</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3144.178700710171</v>
+        <v>3500.032306565866</v>
       </c>
       <c r="AB5" t="n">
-        <v>4302.00400968642</v>
+        <v>4788.898612371308</v>
       </c>
       <c r="AC5" t="n">
-        <v>3891.426784902335</v>
+        <v>4331.852850067826</v>
       </c>
       <c r="AD5" t="n">
-        <v>3144178.700710171</v>
+        <v>3500032.306565866</v>
       </c>
       <c r="AE5" t="n">
-        <v>4302004.009686421</v>
+        <v>4788898.612371309</v>
       </c>
       <c r="AF5" t="n">
         <v>2.561665997107989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.74869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3891426.784902335</v>
+        <v>4331852.850067826</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2973.401326782871</v>
+        <v>3319.634497446348</v>
       </c>
       <c r="AB6" t="n">
-        <v>4068.338872513071</v>
+        <v>4542.070371344322</v>
       </c>
       <c r="AC6" t="n">
-        <v>3680.06232046974</v>
+        <v>4108.581549938852</v>
       </c>
       <c r="AD6" t="n">
-        <v>2973401.326782872</v>
+        <v>3319634.497446348</v>
       </c>
       <c r="AE6" t="n">
-        <v>4068338.872513071</v>
+        <v>4542070.371344321</v>
       </c>
       <c r="AF6" t="n">
         <v>2.632096501049341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.85416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3680062.32046974</v>
+        <v>4108581.549938852</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2844.474116488118</v>
+        <v>3181.121017378159</v>
       </c>
       <c r="AB7" t="n">
-        <v>3891.934975520692</v>
+        <v>4352.550117131552</v>
       </c>
       <c r="AC7" t="n">
-        <v>3520.494163821896</v>
+        <v>3937.148842794808</v>
       </c>
       <c r="AD7" t="n">
-        <v>2844474.116488118</v>
+        <v>3181121.017378159</v>
       </c>
       <c r="AE7" t="n">
-        <v>3891934.975520692</v>
+        <v>4352550.117131552</v>
       </c>
       <c r="AF7" t="n">
         <v>2.68164839710294e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.58463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3520494.163821896</v>
+        <v>3937148.842794808</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2735.959535554677</v>
+        <v>3072.572271025936</v>
       </c>
       <c r="AB8" t="n">
-        <v>3743.46053856211</v>
+        <v>4204.028933539722</v>
       </c>
       <c r="AC8" t="n">
-        <v>3386.189918741466</v>
+        <v>3802.802312514198</v>
       </c>
       <c r="AD8" t="n">
-        <v>2735959.535554677</v>
+        <v>3072572.271025936</v>
       </c>
       <c r="AE8" t="n">
-        <v>3743460.53856211</v>
+        <v>4204028.933539722</v>
       </c>
       <c r="AF8" t="n">
         <v>2.718951509862391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.66015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3386189.918741466</v>
+        <v>3802802.312514198</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2656.970067118752</v>
+        <v>2983.92921300887</v>
       </c>
       <c r="AB9" t="n">
-        <v>3635.383663078667</v>
+        <v>4082.743590905045</v>
       </c>
       <c r="AC9" t="n">
-        <v>3288.427748567319</v>
+        <v>3693.092272755533</v>
       </c>
       <c r="AD9" t="n">
-        <v>2656970.067118752</v>
+        <v>2983929.21300887</v>
       </c>
       <c r="AE9" t="n">
-        <v>3635383.663078667</v>
+        <v>4082743.590905045</v>
       </c>
       <c r="AF9" t="n">
         <v>2.742613932135178e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.08072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3288427.748567319</v>
+        <v>3693092.272755533</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2632.813308407301</v>
+        <v>2959.839774105124</v>
       </c>
       <c r="AB10" t="n">
-        <v>3602.331320088679</v>
+        <v>4049.783357845899</v>
       </c>
       <c r="AC10" t="n">
-        <v>3258.529874803041</v>
+        <v>3663.277718079574</v>
       </c>
       <c r="AD10" t="n">
-        <v>2632813.308407301</v>
+        <v>2959839.774105125</v>
       </c>
       <c r="AE10" t="n">
-        <v>3602331.320088679</v>
+        <v>4049783.357845899</v>
       </c>
       <c r="AF10" t="n">
         <v>2.747903179466742e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.95052083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3258529.874803041</v>
+        <v>3663277.718079574</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2642.409568580834</v>
+        <v>2969.436034278658</v>
       </c>
       <c r="AB11" t="n">
-        <v>3615.461346615227</v>
+        <v>4062.913384372448</v>
       </c>
       <c r="AC11" t="n">
-        <v>3270.406790026004</v>
+        <v>3675.154633302536</v>
       </c>
       <c r="AD11" t="n">
-        <v>2642409.568580834</v>
+        <v>2969436.034278658</v>
       </c>
       <c r="AE11" t="n">
-        <v>3615461.346615227</v>
+        <v>4062913.384372448</v>
       </c>
       <c r="AF11" t="n">
         <v>2.748181560905245e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.94401041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3270406.790026004</v>
+        <v>3675154.633302536</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9609.541674037026</v>
+        <v>10271.44221589425</v>
       </c>
       <c r="AB2" t="n">
-        <v>13148.19886147647</v>
+        <v>14053.84038383659</v>
       </c>
       <c r="AC2" t="n">
-        <v>11893.35321574966</v>
+        <v>12712.56158229156</v>
       </c>
       <c r="AD2" t="n">
-        <v>9609541.674037026</v>
+        <v>10271442.21589425</v>
       </c>
       <c r="AE2" t="n">
-        <v>13148198.86147647</v>
+        <v>14053840.38383659</v>
       </c>
       <c r="AF2" t="n">
         <v>1.23055586749808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>134</v>
+        <v>133.0924479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11893353.21574966</v>
+        <v>12712561.58229155</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4983.142154250433</v>
+        <v>5421.141299288363</v>
       </c>
       <c r="AB3" t="n">
-        <v>6818.154936162099</v>
+        <v>7417.444689561549</v>
       </c>
       <c r="AC3" t="n">
-        <v>6167.439798395085</v>
+        <v>6709.53417883852</v>
       </c>
       <c r="AD3" t="n">
-        <v>4983142.154250433</v>
+        <v>5421141.299288363</v>
       </c>
       <c r="AE3" t="n">
-        <v>6818154.936162099</v>
+        <v>7417444.68956155</v>
       </c>
       <c r="AF3" t="n">
         <v>1.858159483484938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.13802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6167439.798395085</v>
+        <v>6709534.17883852</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4121.986982876297</v>
+        <v>4511.304483949429</v>
       </c>
       <c r="AB4" t="n">
-        <v>5639.884439203081</v>
+        <v>6172.565819647334</v>
       </c>
       <c r="AC4" t="n">
-        <v>5101.621783952853</v>
+        <v>5583.464801070498</v>
       </c>
       <c r="AD4" t="n">
-        <v>4121986.982876297</v>
+        <v>4511304.483949428</v>
       </c>
       <c r="AE4" t="n">
-        <v>5639884.439203082</v>
+        <v>6172565.819647335</v>
       </c>
       <c r="AF4" t="n">
         <v>2.097378336712794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.07942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5101621.783952853</v>
+        <v>5583464.801070497</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3743.116979157335</v>
+        <v>4113.029142452251</v>
       </c>
       <c r="AB5" t="n">
-        <v>5121.497785549859</v>
+        <v>5627.627926742874</v>
       </c>
       <c r="AC5" t="n">
-        <v>4632.709224964075</v>
+        <v>5090.535015839723</v>
       </c>
       <c r="AD5" t="n">
-        <v>3743116.979157335</v>
+        <v>4113029.142452251</v>
       </c>
       <c r="AE5" t="n">
-        <v>5121497.78554986</v>
+        <v>5627627.926742873</v>
       </c>
       <c r="AF5" t="n">
         <v>2.223150604445632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.66536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4632709.224964075</v>
+        <v>5090535.015839723</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3530.094495520272</v>
+        <v>3880.500846840345</v>
       </c>
       <c r="AB6" t="n">
-        <v>4830.031025548904</v>
+        <v>5309.472454262245</v>
       </c>
       <c r="AC6" t="n">
-        <v>4369.059643461455</v>
+        <v>4802.743855118647</v>
       </c>
       <c r="AD6" t="n">
-        <v>3530094.495520272</v>
+        <v>3880500.846840345</v>
       </c>
       <c r="AE6" t="n">
-        <v>4830031.025548904</v>
+        <v>5309472.454262245</v>
       </c>
       <c r="AF6" t="n">
         <v>2.301632499510922e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.15234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>4369059.643461456</v>
+        <v>4802743.855118647</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3377.111365219456</v>
+        <v>3727.550870928452</v>
       </c>
       <c r="AB7" t="n">
-        <v>4620.712757531937</v>
+        <v>5100.199549542871</v>
       </c>
       <c r="AC7" t="n">
-        <v>4179.718417164001</v>
+        <v>4613.443662709333</v>
       </c>
       <c r="AD7" t="n">
-        <v>3377111.365219456</v>
+        <v>3727550.870928452</v>
       </c>
       <c r="AE7" t="n">
-        <v>4620712.757531937</v>
+        <v>5100199.549542871</v>
       </c>
       <c r="AF7" t="n">
         <v>2.354959941029645e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.54427083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4179718.417164001</v>
+        <v>4613443.662709333</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3260.500694365396</v>
+        <v>3601.136551473728</v>
       </c>
       <c r="AB8" t="n">
-        <v>4461.160893169686</v>
+        <v>4927.233900658739</v>
       </c>
       <c r="AC8" t="n">
-        <v>4035.39395880404</v>
+        <v>4456.985612595895</v>
       </c>
       <c r="AD8" t="n">
-        <v>3260500.694365396</v>
+        <v>3601136.551473727</v>
       </c>
       <c r="AE8" t="n">
-        <v>4461160.893169686</v>
+        <v>4927233.900658739</v>
       </c>
       <c r="AF8" t="n">
         <v>2.394955522168687e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.37890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>4035393.95880404</v>
+        <v>4456985.612595895</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3164.74254245386</v>
+        <v>3505.445719369896</v>
       </c>
       <c r="AB9" t="n">
-        <v>4330.140365172807</v>
+        <v>4796.305482592701</v>
       </c>
       <c r="AC9" t="n">
-        <v>3916.877846110723</v>
+        <v>4338.552818990897</v>
       </c>
       <c r="AD9" t="n">
-        <v>3164742.54245386</v>
+        <v>3505445.719369896</v>
       </c>
       <c r="AE9" t="n">
-        <v>4330140.365172807</v>
+        <v>4796305.482592701</v>
       </c>
       <c r="AF9" t="n">
         <v>2.4256439554955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.51302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3916877.846110723</v>
+        <v>4338552.818990897</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3081.395095492695</v>
+        <v>3422.06410698995</v>
       </c>
       <c r="AB10" t="n">
-        <v>4216.100711210684</v>
+        <v>4682.219081997332</v>
       </c>
       <c r="AC10" t="n">
-        <v>3813.721976667091</v>
+        <v>4235.354664347085</v>
       </c>
       <c r="AD10" t="n">
-        <v>3081395.095492695</v>
+        <v>3422064.10698995</v>
       </c>
       <c r="AE10" t="n">
-        <v>4216100.711210685</v>
+        <v>4682219.081997332</v>
       </c>
       <c r="AF10" t="n">
         <v>2.448786052758342e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>3813721.97666709</v>
+        <v>4235354.664347085</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3009.438454642738</v>
+        <v>3340.33798295811</v>
       </c>
       <c r="AB11" t="n">
-        <v>4117.64646069682</v>
+        <v>4570.397793594833</v>
       </c>
       <c r="AC11" t="n">
-        <v>3724.664061640864</v>
+        <v>4134.205442767561</v>
       </c>
       <c r="AD11" t="n">
-        <v>3009438.454642738</v>
+        <v>3340337.98295811</v>
       </c>
       <c r="AE11" t="n">
-        <v>4117646.46069682</v>
+        <v>4570397.793594833</v>
       </c>
       <c r="AF11" t="n">
         <v>2.468909615595596e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.33463541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3724664.061640864</v>
+        <v>4134205.442767561</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2935.091763554719</v>
+        <v>3266.058611677796</v>
       </c>
       <c r="AB12" t="n">
-        <v>4015.922038005664</v>
+        <v>4468.765480834519</v>
       </c>
       <c r="AC12" t="n">
-        <v>3632.648075080231</v>
+        <v>4042.272775295247</v>
       </c>
       <c r="AD12" t="n">
-        <v>2935091.763554719</v>
+        <v>3266058.611677796</v>
       </c>
       <c r="AE12" t="n">
-        <v>4015922.038005664</v>
+        <v>4468765.480834519</v>
       </c>
       <c r="AF12" t="n">
         <v>2.483750743188071e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.93098958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3632648.075080231</v>
+        <v>4042272.775295247</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2886.014428896926</v>
+        <v>3216.981277020002</v>
       </c>
       <c r="AB13" t="n">
-        <v>3948.772263587669</v>
+        <v>4401.615706416524</v>
       </c>
       <c r="AC13" t="n">
-        <v>3571.906980887392</v>
+        <v>3981.531681102408</v>
       </c>
       <c r="AD13" t="n">
-        <v>2886014.428896926</v>
+        <v>3216981.277020002</v>
       </c>
       <c r="AE13" t="n">
-        <v>3948772.263587669</v>
+        <v>4401615.706416524</v>
       </c>
       <c r="AF13" t="n">
         <v>2.494567158213094e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.65104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3571906.980887393</v>
+        <v>3981531.681102408</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2879.103629706881</v>
+        <v>3210.070477829957</v>
       </c>
       <c r="AB14" t="n">
-        <v>3939.316603252906</v>
+        <v>4392.160046081761</v>
       </c>
       <c r="AC14" t="n">
-        <v>3563.353755503877</v>
+        <v>3972.978455718893</v>
       </c>
       <c r="AD14" t="n">
-        <v>2879103.629706881</v>
+        <v>3210070.477829957</v>
       </c>
       <c r="AE14" t="n">
-        <v>3939316.603252906</v>
+        <v>4392160.046081761</v>
       </c>
       <c r="AF14" t="n">
         <v>2.497585692638683e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.56640625</v>
       </c>
       <c r="AH14" t="n">
-        <v>3563353.755503877</v>
+        <v>3972978.455718893</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2888.884745533733</v>
+        <v>3219.851593656809</v>
       </c>
       <c r="AB15" t="n">
-        <v>3952.699557439582</v>
+        <v>4405.543000268437</v>
       </c>
       <c r="AC15" t="n">
-        <v>3575.45945932607</v>
+        <v>3985.084159541086</v>
       </c>
       <c r="AD15" t="n">
-        <v>2888884.745533733</v>
+        <v>3219851.593656809</v>
       </c>
       <c r="AE15" t="n">
-        <v>3952699.557439582</v>
+        <v>4405543.000268437</v>
       </c>
       <c r="AF15" t="n">
         <v>2.497334148103217e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.57291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3575459.45932607</v>
+        <v>3985084.159541086</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1785.055245906539</v>
+        <v>2155.169193317419</v>
       </c>
       <c r="AB2" t="n">
-        <v>2442.391338528803</v>
+        <v>2948.797569651337</v>
       </c>
       <c r="AC2" t="n">
-        <v>2209.292937097387</v>
+        <v>2667.368468267196</v>
       </c>
       <c r="AD2" t="n">
-        <v>1785055.245906539</v>
+        <v>2155169.193317419</v>
       </c>
       <c r="AE2" t="n">
-        <v>2442391.338528803</v>
+        <v>2948797.569651337</v>
       </c>
       <c r="AF2" t="n">
         <v>5.031719812266133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.96484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2209292.937097386</v>
+        <v>2667368.468267196</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4212.309701673487</v>
+        <v>4665.476382721843</v>
       </c>
       <c r="AB2" t="n">
-        <v>5763.467967818528</v>
+        <v>6383.510613131906</v>
       </c>
       <c r="AC2" t="n">
-        <v>5213.410674047807</v>
+        <v>5774.277319527771</v>
       </c>
       <c r="AD2" t="n">
-        <v>4212309.701673487</v>
+        <v>4665476.382721843</v>
       </c>
       <c r="AE2" t="n">
-        <v>5763467.967818528</v>
+        <v>6383510.613131906</v>
       </c>
       <c r="AF2" t="n">
         <v>2.335156543882915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.74739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5213410.674047807</v>
+        <v>5774277.319527771</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2918.76725932901</v>
+        <v>3277.469707383296</v>
       </c>
       <c r="AB3" t="n">
-        <v>3993.586131137748</v>
+        <v>4484.378645400798</v>
       </c>
       <c r="AC3" t="n">
-        <v>3612.443875815149</v>
+        <v>4056.395841348534</v>
       </c>
       <c r="AD3" t="n">
-        <v>2918767.25932901</v>
+        <v>3277469.707383296</v>
       </c>
       <c r="AE3" t="n">
-        <v>3993586.131137748</v>
+        <v>4484378.645400798</v>
       </c>
       <c r="AF3" t="n">
         <v>2.908050056999653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.48567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3612443.875815148</v>
+        <v>4056395.841348534</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2558.343818709409</v>
+        <v>2898.227370850371</v>
       </c>
       <c r="AB4" t="n">
-        <v>3500.438878922001</v>
+        <v>3965.482549565346</v>
       </c>
       <c r="AC4" t="n">
-        <v>3166.361905214375</v>
+        <v>3587.022460624393</v>
       </c>
       <c r="AD4" t="n">
-        <v>2558343.818709409</v>
+        <v>2898227.370850371</v>
       </c>
       <c r="AE4" t="n">
-        <v>3500438.878922001</v>
+        <v>3965482.549565346</v>
       </c>
       <c r="AF4" t="n">
         <v>3.110991429241935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.62239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3166361.905214375</v>
+        <v>3587022.460624393</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2360.520705210587</v>
+        <v>2690.859664264549</v>
       </c>
       <c r="AB5" t="n">
-        <v>3229.768567693075</v>
+        <v>3681.752904997057</v>
       </c>
       <c r="AC5" t="n">
-        <v>2921.523988600981</v>
+        <v>3330.371575116656</v>
       </c>
       <c r="AD5" t="n">
-        <v>2360520.705210587</v>
+        <v>2690859.66426455</v>
       </c>
       <c r="AE5" t="n">
-        <v>3229768.567693075</v>
+        <v>3681752.904997057</v>
       </c>
       <c r="AF5" t="n">
         <v>3.215789023104753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.35026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2921523.988600981</v>
+        <v>3330371.575116656</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2313.713106045618</v>
+        <v>2644.119384907284</v>
       </c>
       <c r="AB6" t="n">
-        <v>3165.724345510025</v>
+        <v>3617.800792744849</v>
       </c>
       <c r="AC6" t="n">
-        <v>2863.592057096454</v>
+        <v>3272.522962700447</v>
       </c>
       <c r="AD6" t="n">
-        <v>2313713.106045618</v>
+        <v>2644119.384907284</v>
       </c>
       <c r="AE6" t="n">
-        <v>3165724.345510025</v>
+        <v>3617800.792744849</v>
       </c>
       <c r="AF6" t="n">
         <v>3.236083160328981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.92708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2863592.057096453</v>
+        <v>3272522.962700447</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2324.819391133749</v>
+        <v>2655.225669995416</v>
       </c>
       <c r="AB7" t="n">
-        <v>3180.920454742325</v>
+        <v>3632.996901977149</v>
       </c>
       <c r="AC7" t="n">
-        <v>2877.337870991495</v>
+        <v>3286.268776595489</v>
       </c>
       <c r="AD7" t="n">
-        <v>2324819.391133749</v>
+        <v>2655225.669995416</v>
       </c>
       <c r="AE7" t="n">
-        <v>3180920.454742325</v>
+        <v>3632996.901977149</v>
       </c>
       <c r="AF7" t="n">
         <v>3.236083160328981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.93359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2877337.870991495</v>
+        <v>3286268.776595489</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5633.901025025379</v>
+        <v>6140.17761568359</v>
       </c>
       <c r="AB2" t="n">
-        <v>7708.551932611598</v>
+        <v>8401.261899297031</v>
       </c>
       <c r="AC2" t="n">
-        <v>6972.858555183443</v>
+        <v>7599.457254872938</v>
       </c>
       <c r="AD2" t="n">
-        <v>5633901.025025379</v>
+        <v>6140177.61568359</v>
       </c>
       <c r="AE2" t="n">
-        <v>7708551.932611599</v>
+        <v>8401261.899297031</v>
       </c>
       <c r="AF2" t="n">
         <v>1.850614556748661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.2122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6972858.555183443</v>
+        <v>7599457.254872939</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3569.576104386128</v>
+        <v>3961.226474043795</v>
       </c>
       <c r="AB3" t="n">
-        <v>4884.051504604823</v>
+        <v>5419.924818765336</v>
       </c>
       <c r="AC3" t="n">
-        <v>4417.924483814493</v>
+        <v>4902.654800974427</v>
       </c>
       <c r="AD3" t="n">
-        <v>3569576.104386128</v>
+        <v>3961226.474043795</v>
       </c>
       <c r="AE3" t="n">
-        <v>4884051.504604823</v>
+        <v>5419924.818765336</v>
       </c>
       <c r="AF3" t="n">
         <v>2.449316656826945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.73697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4417924.483814493</v>
+        <v>4902654.800974428</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3091.785977706505</v>
+        <v>3445.18340117876</v>
       </c>
       <c r="AB4" t="n">
-        <v>4230.317974668991</v>
+        <v>4713.851920257739</v>
       </c>
       <c r="AC4" t="n">
-        <v>3826.58236445499</v>
+        <v>4263.968508920885</v>
       </c>
       <c r="AD4" t="n">
-        <v>3091785.977706505</v>
+        <v>3445183.40117876</v>
       </c>
       <c r="AE4" t="n">
-        <v>4230317.974668991</v>
+        <v>4713851.920257739</v>
       </c>
       <c r="AF4" t="n">
         <v>2.66468351816139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3826582.36445499</v>
+        <v>4263968.508920885</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2848.759234762287</v>
+        <v>3192.567544866639</v>
       </c>
       <c r="AB5" t="n">
-        <v>3897.798063389486</v>
+        <v>4368.211761026443</v>
       </c>
       <c r="AC5" t="n">
-        <v>3525.797686813386</v>
+        <v>3951.315761377626</v>
       </c>
       <c r="AD5" t="n">
-        <v>2848759.234762287</v>
+        <v>3192567.544866639</v>
       </c>
       <c r="AE5" t="n">
-        <v>3897798.063389486</v>
+        <v>4368211.761026443</v>
       </c>
       <c r="AF5" t="n">
         <v>2.777847398532446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3525797.686813386</v>
+        <v>3951315.761377626</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2683.060409784529</v>
+        <v>3017.415257166244</v>
       </c>
       <c r="AB6" t="n">
-        <v>3671.081620938669</v>
+        <v>4128.560673821173</v>
       </c>
       <c r="AC6" t="n">
-        <v>3320.718743431559</v>
+        <v>3734.536637582823</v>
       </c>
       <c r="AD6" t="n">
-        <v>2683060.409784529</v>
+        <v>3017415.257166244</v>
       </c>
       <c r="AE6" t="n">
-        <v>3671081.620938669</v>
+        <v>4128560.673821173</v>
       </c>
       <c r="AF6" t="n">
         <v>2.848945124420021e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.6953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3320718.743431559</v>
+        <v>3734536.637582823</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2557.895452719793</v>
+        <v>2882.729517571166</v>
       </c>
       <c r="AB7" t="n">
-        <v>3499.825404794496</v>
+        <v>3944.277702991704</v>
       </c>
       <c r="AC7" t="n">
-        <v>3165.806980196583</v>
+        <v>3567.841374846551</v>
       </c>
       <c r="AD7" t="n">
-        <v>2557895.452719793</v>
+        <v>2882729.517571166</v>
       </c>
       <c r="AE7" t="n">
-        <v>3499825.404794496</v>
+        <v>3944277.702991704</v>
       </c>
       <c r="AF7" t="n">
         <v>2.896047367820539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.59505208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3165806.980196583</v>
+        <v>3567841.374846552</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2513.40757200531</v>
+        <v>2838.140151630198</v>
       </c>
       <c r="AB8" t="n">
-        <v>3438.955123734158</v>
+        <v>3883.268565367278</v>
       </c>
       <c r="AC8" t="n">
-        <v>3110.746073328671</v>
+        <v>3512.65486369014</v>
       </c>
       <c r="AD8" t="n">
-        <v>2513407.57200531</v>
+        <v>2838140.151630199</v>
       </c>
       <c r="AE8" t="n">
-        <v>3438955.123734158</v>
+        <v>3883268.565367278</v>
       </c>
       <c r="AF8" t="n">
         <v>2.912933077718838e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.2109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3110746.073328671</v>
+        <v>3512654.86369014</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2522.989467210736</v>
+        <v>2847.722046835624</v>
       </c>
       <c r="AB9" t="n">
-        <v>3452.065495477606</v>
+        <v>3896.378937110725</v>
       </c>
       <c r="AC9" t="n">
-        <v>3122.605209593445</v>
+        <v>3524.513999954915</v>
       </c>
       <c r="AD9" t="n">
-        <v>2522989.467210736</v>
+        <v>2847722.046835625</v>
       </c>
       <c r="AE9" t="n">
-        <v>3452065.495477606</v>
+        <v>3896378.937110725</v>
       </c>
       <c r="AF9" t="n">
         <v>2.91322931824337e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.19791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3122605.209593445</v>
+        <v>3524513.999954915</v>
       </c>
     </row>
   </sheetData>
